--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,15 @@
     <t>['3', '5', '56', '72']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['67', '85']</t>
+  </si>
+  <si>
+    <t>['7', '90+6']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -632,9 +641,6 @@
   </si>
   <si>
     <t>['39', '48']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['60', '66', '82']</t>
@@ -866,6 +872,15 @@
   </si>
   <si>
     <t>['15', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['68', '78', '90+3']</t>
+  </si>
+  <si>
+    <t>['68', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1662,7 +1677,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1749,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT3">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1853,7 +1868,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q4">
         <v>11</v>
@@ -1940,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT4">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2134,7 +2149,7 @@
         <v>2.46</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2235,7 +2250,7 @@
         <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2322,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2426,7 +2441,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2617,7 +2632,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -3190,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3381,7 +3396,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3572,7 +3587,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3662,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3763,7 +3778,7 @@
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3850,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>1.83</v>
@@ -3954,7 +3969,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4041,10 +4056,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT15">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4235,7 +4250,7 @@
         <v>2.46</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU16">
         <v>1.99</v>
@@ -4423,10 +4438,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT17">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU17">
         <v>0.96</v>
@@ -4527,7 +4542,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4614,7 +4629,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT18">
         <v>1.31</v>
@@ -4718,7 +4733,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4805,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT19">
         <v>1.83</v>
@@ -4909,7 +4924,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>8</v>
@@ -4999,7 +5014,7 @@
         <v>0.92</v>
       </c>
       <c r="AT20">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU20">
         <v>1.67</v>
@@ -5100,7 +5115,7 @@
         <v>83</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5187,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT21">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU21">
         <v>1.09</v>
@@ -5291,7 +5306,7 @@
         <v>83</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5378,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT22">
         <v>1</v>
@@ -5760,7 +5775,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>1.31</v>
@@ -6145,7 +6160,7 @@
         <v>1.54</v>
       </c>
       <c r="AT26">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU26">
         <v>2.68</v>
@@ -6246,7 +6261,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6336,7 +6351,7 @@
         <v>0.62</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU27">
         <v>1.03</v>
@@ -6437,7 +6452,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6628,7 +6643,7 @@
         <v>83</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6819,7 +6834,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6906,7 +6921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7100,7 +7115,7 @@
         <v>0.92</v>
       </c>
       <c r="AT31">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7288,7 +7303,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT32">
         <v>1.31</v>
@@ -7482,7 +7497,7 @@
         <v>2.46</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU33">
         <v>1.99</v>
@@ -7583,7 +7598,7 @@
         <v>101</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>13</v>
@@ -7673,7 +7688,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU34">
         <v>0.6899999999999999</v>
@@ -7861,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT35">
         <v>1.31</v>
@@ -8052,7 +8067,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT36">
         <v>1.83</v>
@@ -8347,7 +8362,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -8437,7 +8452,7 @@
         <v>1.54</v>
       </c>
       <c r="AT38">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU38">
         <v>1.8</v>
@@ -8538,7 +8553,7 @@
         <v>106</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2</v>
@@ -8625,7 +8640,7 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT39">
         <v>2.54</v>
@@ -8819,7 +8834,7 @@
         <v>2.85</v>
       </c>
       <c r="AT40">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU40">
         <v>2.22</v>
@@ -9007,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT41">
         <v>0.62</v>
@@ -9111,7 +9126,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>4</v>
@@ -9302,7 +9317,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9392,7 +9407,7 @@
         <v>1.31</v>
       </c>
       <c r="AT43">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU43">
         <v>1.31</v>
@@ -9493,7 +9508,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9580,7 +9595,7 @@
         <v>0.67</v>
       </c>
       <c r="AS44">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT44">
         <v>1.31</v>
@@ -9684,7 +9699,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9771,7 +9786,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT45">
         <v>1.31</v>
@@ -9875,7 +9890,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9965,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU46">
         <v>0.98</v>
@@ -10257,7 +10272,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10347,7 +10362,7 @@
         <v>0.62</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU48">
         <v>1.36</v>
@@ -10448,7 +10463,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10535,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10920,7 +10935,7 @@
         <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU51">
         <v>1.28</v>
@@ -11302,7 +11317,7 @@
         <v>1.31</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>1.36</v>
@@ -11403,7 +11418,7 @@
         <v>83</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11490,10 +11505,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU54">
         <v>1.55</v>
@@ -11594,7 +11609,7 @@
         <v>83</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>5</v>
@@ -11681,7 +11696,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT55">
         <v>1.69</v>
@@ -11785,7 +11800,7 @@
         <v>105</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11872,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT56">
         <v>0.62</v>
@@ -12066,7 +12081,7 @@
         <v>2.85</v>
       </c>
       <c r="AT57">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU57">
         <v>2.04</v>
@@ -12167,7 +12182,7 @@
         <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>9</v>
@@ -12254,7 +12269,7 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
         <v>2.54</v>
@@ -12445,7 +12460,7 @@
         <v>0.25</v>
       </c>
       <c r="AS59">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT59">
         <v>0.62</v>
@@ -12549,7 +12564,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -12639,7 +12654,7 @@
         <v>1.54</v>
       </c>
       <c r="AT60">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU60">
         <v>1.81</v>
@@ -12740,7 +12755,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13504,7 +13519,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13594,7 +13609,7 @@
         <v>2.85</v>
       </c>
       <c r="AT65">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU65">
         <v>2.31</v>
@@ -13695,7 +13710,7 @@
         <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13782,7 +13797,7 @@
         <v>2.5</v>
       </c>
       <c r="AS66">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT66">
         <v>1.69</v>
@@ -13886,7 +13901,7 @@
         <v>126</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -13973,10 +13988,10 @@
         <v>1.25</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT67">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU67">
         <v>1.55</v>
@@ -14077,7 +14092,7 @@
         <v>127</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14164,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT68">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU68">
         <v>2.11</v>
@@ -14459,7 +14474,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14549,7 +14564,7 @@
         <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU70">
         <v>1.5</v>
@@ -14737,10 +14752,10 @@
         <v>1.75</v>
       </c>
       <c r="AS71">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT71">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU71">
         <v>1.89</v>
@@ -15310,7 +15325,7 @@
         <v>2.6</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT74">
         <v>1.69</v>
@@ -15414,7 +15429,7 @@
         <v>132</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15796,7 +15811,7 @@
         <v>83</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15987,7 +16002,7 @@
         <v>134</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16178,7 +16193,7 @@
         <v>135</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16265,10 +16280,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU79">
         <v>1.49</v>
@@ -16456,10 +16471,10 @@
         <v>0.8</v>
       </c>
       <c r="AS80">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU80">
         <v>2.08</v>
@@ -16560,7 +16575,7 @@
         <v>83</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>4</v>
@@ -16647,10 +16662,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT81">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU81">
         <v>1.34</v>
@@ -16751,7 +16766,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16838,10 +16853,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT82">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU82">
         <v>1.07</v>
@@ -17029,10 +17044,10 @@
         <v>1.6</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT83">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU83">
         <v>1.83</v>
@@ -17133,7 +17148,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17223,7 +17238,7 @@
         <v>1.17</v>
       </c>
       <c r="AT84">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU84">
         <v>1.44</v>
@@ -17324,7 +17339,7 @@
         <v>83</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17411,7 +17426,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT85">
         <v>1.83</v>
@@ -17515,7 +17530,7 @@
         <v>139</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18088,7 +18103,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18279,7 +18294,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18470,7 +18485,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18852,7 +18867,7 @@
         <v>143</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -19234,7 +19249,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19425,7 +19440,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19616,7 +19631,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19807,7 +19822,7 @@
         <v>83</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19897,7 +19912,7 @@
         <v>0.92</v>
       </c>
       <c r="AT98">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU98">
         <v>1.25</v>
@@ -19998,7 +20013,7 @@
         <v>146</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>9</v>
@@ -20279,7 +20294,7 @@
         <v>2.46</v>
       </c>
       <c r="AT100">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU100">
         <v>2.34</v>
@@ -20380,7 +20395,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20467,10 +20482,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU101">
         <v>1.31</v>
@@ -20658,10 +20673,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT102">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU102">
         <v>1.13</v>
@@ -20849,10 +20864,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT103">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU103">
         <v>1.14</v>
@@ -20953,7 +20968,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21040,10 +21055,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT104">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU104">
         <v>1.87</v>
@@ -21144,7 +21159,7 @@
         <v>151</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>16</v>
@@ -21231,7 +21246,7 @@
         <v>0.57</v>
       </c>
       <c r="AS105">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21335,7 +21350,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>10</v>
@@ -21422,7 +21437,7 @@
         <v>2.14</v>
       </c>
       <c r="AS106">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT106">
         <v>1.83</v>
@@ -21526,7 +21541,7 @@
         <v>152</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21908,7 +21923,7 @@
         <v>154</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21995,7 +22010,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>1</v>
@@ -22099,7 +22114,7 @@
         <v>155</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22380,7 +22395,7 @@
         <v>0.62</v>
       </c>
       <c r="AT111">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU111">
         <v>1.52</v>
@@ -22481,7 +22496,7 @@
         <v>156</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>7</v>
@@ -22571,7 +22586,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU112">
         <v>1.19</v>
@@ -22950,7 +22965,7 @@
         <v>1.25</v>
       </c>
       <c r="AS114">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT114">
         <v>1.31</v>
@@ -23144,7 +23159,7 @@
         <v>2.46</v>
       </c>
       <c r="AT115">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU115">
         <v>2.31</v>
@@ -23332,10 +23347,10 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT116">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU116">
         <v>1.06</v>
@@ -23436,7 +23451,7 @@
         <v>160</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23523,10 +23538,10 @@
         <v>0.86</v>
       </c>
       <c r="AS117">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT117">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU117">
         <v>1.3</v>
@@ -23627,7 +23642,7 @@
         <v>83</v>
       </c>
       <c r="P118" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>2</v>
@@ -23717,7 +23732,7 @@
         <v>0.92</v>
       </c>
       <c r="AT118">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU118">
         <v>1.25</v>
@@ -23818,7 +23833,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -23905,7 +23920,7 @@
         <v>2.25</v>
       </c>
       <c r="AS119">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT119">
         <v>1.83</v>
@@ -24096,7 +24111,7 @@
         <v>0.63</v>
       </c>
       <c r="AS120">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24200,7 +24215,7 @@
         <v>131</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24391,7 +24406,7 @@
         <v>162</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24481,7 +24496,7 @@
         <v>0.62</v>
       </c>
       <c r="AT122">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU122">
         <v>1.49</v>
@@ -24672,7 +24687,7 @@
         <v>1.54</v>
       </c>
       <c r="AT123">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU123">
         <v>1.6</v>
@@ -24860,7 +24875,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -24964,7 +24979,7 @@
         <v>165</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25155,7 +25170,7 @@
         <v>166</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -25245,7 +25260,7 @@
         <v>1.31</v>
       </c>
       <c r="AT126">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU126">
         <v>1.82</v>
@@ -25433,7 +25448,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS127">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT127">
         <v>1</v>
@@ -25624,10 +25639,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT128">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU128">
         <v>1.08</v>
@@ -25728,7 +25743,7 @@
         <v>83</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>6</v>
@@ -25818,7 +25833,7 @@
         <v>1</v>
       </c>
       <c r="AT129">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU129">
         <v>1.2</v>
@@ -26006,7 +26021,7 @@
         <v>1.22</v>
       </c>
       <c r="AS130">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT130">
         <v>1.31</v>
@@ -26110,7 +26125,7 @@
         <v>83</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26200,7 +26215,7 @@
         <v>0.92</v>
       </c>
       <c r="AT131">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU131">
         <v>1.2</v>
@@ -26301,7 +26316,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>6</v>
@@ -26388,7 +26403,7 @@
         <v>0.78</v>
       </c>
       <c r="AS132">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT132">
         <v>1.31</v>
@@ -26773,7 +26788,7 @@
         <v>2.85</v>
       </c>
       <c r="AT134">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU134">
         <v>2.04</v>
@@ -26964,7 +26979,7 @@
         <v>1.54</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU135">
         <v>1.66</v>
@@ -27152,7 +27167,7 @@
         <v>0.8</v>
       </c>
       <c r="AS136">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT136">
         <v>0.62</v>
@@ -27256,7 +27271,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27346,7 +27361,7 @@
         <v>1.31</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU137">
         <v>1.77</v>
@@ -27537,7 +27552,7 @@
         <v>1.17</v>
       </c>
       <c r="AT138">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU138">
         <v>1.49</v>
@@ -27638,7 +27653,7 @@
         <v>83</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27725,7 +27740,7 @@
         <v>2.63</v>
       </c>
       <c r="AS139">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT139">
         <v>2.54</v>
@@ -27916,7 +27931,7 @@
         <v>1.8</v>
       </c>
       <c r="AS140">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT140">
         <v>1.69</v>
@@ -28020,7 +28035,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28107,7 +28122,7 @@
         <v>2.67</v>
       </c>
       <c r="AS141">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT141">
         <v>2.54</v>
@@ -28211,7 +28226,7 @@
         <v>172</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>8</v>
@@ -28402,7 +28417,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28489,10 +28504,10 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT143">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU143">
         <v>1.16</v>
@@ -28593,7 +28608,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28680,7 +28695,7 @@
         <v>0.8</v>
       </c>
       <c r="AS144">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT144">
         <v>1.31</v>
@@ -28784,7 +28799,7 @@
         <v>83</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28874,7 +28889,7 @@
         <v>0.62</v>
       </c>
       <c r="AT145">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU145">
         <v>1.58</v>
@@ -28975,7 +28990,7 @@
         <v>102</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>2</v>
@@ -29166,7 +29181,7 @@
         <v>83</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3</v>
@@ -29253,7 +29268,7 @@
         <v>2.7</v>
       </c>
       <c r="AS147">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT147">
         <v>2.54</v>
@@ -29357,7 +29372,7 @@
         <v>106</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29548,7 +29563,7 @@
         <v>174</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29638,7 +29653,7 @@
         <v>1.31</v>
       </c>
       <c r="AT149">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU149">
         <v>1.74</v>
@@ -29826,7 +29841,7 @@
         <v>1.64</v>
       </c>
       <c r="AS150">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT150">
         <v>1.69</v>
@@ -29930,7 +29945,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30017,7 +30032,7 @@
         <v>0.9</v>
       </c>
       <c r="AS151">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT151">
         <v>1</v>
@@ -30121,7 +30136,7 @@
         <v>106</v>
       </c>
       <c r="P152" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q152">
         <v>8</v>
@@ -30208,10 +30223,10 @@
         <v>0.8</v>
       </c>
       <c r="AS152">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT152">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU152">
         <v>1.52</v>
@@ -30402,7 +30417,7 @@
         <v>2.85</v>
       </c>
       <c r="AT153">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU153">
         <v>2.04</v>
@@ -30593,7 +30608,7 @@
         <v>1.17</v>
       </c>
       <c r="AT154">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU154">
         <v>1.39</v>
@@ -30781,10 +30796,10 @@
         <v>1.6</v>
       </c>
       <c r="AS155">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT155">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU155">
         <v>1.95</v>
@@ -30885,7 +30900,7 @@
         <v>83</v>
       </c>
       <c r="P156" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q156">
         <v>14</v>
@@ -31076,7 +31091,7 @@
         <v>177</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31267,7 +31282,7 @@
         <v>178</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31545,7 +31560,7 @@
         <v>0.73</v>
       </c>
       <c r="AS159">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT159">
         <v>0.62</v>
@@ -31649,7 +31664,7 @@
         <v>179</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q160">
         <v>1</v>
@@ -31927,10 +31942,10 @@
         <v>1.3</v>
       </c>
       <c r="AS161">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT161">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU161">
         <v>1.17</v>
@@ -32222,7 +32237,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32312,7 +32327,7 @@
         <v>1.17</v>
       </c>
       <c r="AT163">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU163">
         <v>1.43</v>
@@ -32413,7 +32428,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32500,10 +32515,10 @@
         <v>1.45</v>
       </c>
       <c r="AS164">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT164">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU164">
         <v>1.03</v>
@@ -32604,7 +32619,7 @@
         <v>182</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q165">
         <v>9</v>
@@ -32691,10 +32706,10 @@
         <v>0.82</v>
       </c>
       <c r="AS165">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT165">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU165">
         <v>1.49</v>
@@ -32882,10 +32897,10 @@
         <v>1.18</v>
       </c>
       <c r="AS166">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT166">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU166">
         <v>1.89</v>
@@ -32986,7 +33001,7 @@
         <v>184</v>
       </c>
       <c r="P167" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q167">
         <v>9</v>
@@ -33076,7 +33091,7 @@
         <v>2.85</v>
       </c>
       <c r="AT167">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU167">
         <v>2.1</v>
@@ -33177,7 +33192,7 @@
         <v>185</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>5</v>
@@ -33264,7 +33279,7 @@
         <v>1.09</v>
       </c>
       <c r="AS168">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT168">
         <v>1</v>
@@ -33455,10 +33470,10 @@
         <v>0.82</v>
       </c>
       <c r="AS169">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT169">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU169">
         <v>1.81</v>
@@ -33559,7 +33574,7 @@
         <v>148</v>
       </c>
       <c r="P170" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33750,7 +33765,7 @@
         <v>83</v>
       </c>
       <c r="P171" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33941,7 +33956,7 @@
         <v>187</v>
       </c>
       <c r="P172" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34132,7 +34147,7 @@
         <v>188</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34323,7 +34338,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34514,7 +34529,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q175">
         <v>11</v>
@@ -34847,6 +34862,1152 @@
       </c>
       <c r="BK176">
         <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2367210</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F177">
+        <v>26</v>
+      </c>
+      <c r="G177" t="s">
+        <v>65</v>
+      </c>
+      <c r="H177" t="s">
+        <v>68</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>105</v>
+      </c>
+      <c r="P177" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q177">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>9</v>
+      </c>
+      <c r="S177">
+        <v>12</v>
+      </c>
+      <c r="T177">
+        <v>7</v>
+      </c>
+      <c r="U177">
+        <v>2.3</v>
+      </c>
+      <c r="V177">
+        <v>2</v>
+      </c>
+      <c r="W177">
+        <v>1.36</v>
+      </c>
+      <c r="X177">
+        <v>3</v>
+      </c>
+      <c r="Y177">
+        <v>2.75</v>
+      </c>
+      <c r="Z177">
+        <v>1.4</v>
+      </c>
+      <c r="AA177">
+        <v>8</v>
+      </c>
+      <c r="AB177">
+        <v>1.08</v>
+      </c>
+      <c r="AC177">
+        <v>4.4</v>
+      </c>
+      <c r="AD177">
+        <v>3.75</v>
+      </c>
+      <c r="AE177">
+        <v>1.65</v>
+      </c>
+      <c r="AF177">
+        <v>1.05</v>
+      </c>
+      <c r="AG177">
+        <v>10</v>
+      </c>
+      <c r="AH177">
+        <v>1.28</v>
+      </c>
+      <c r="AI177">
+        <v>3.4</v>
+      </c>
+      <c r="AJ177">
+        <v>1.85</v>
+      </c>
+      <c r="AK177">
+        <v>1.85</v>
+      </c>
+      <c r="AL177">
+        <v>2</v>
+      </c>
+      <c r="AM177">
+        <v>1.73</v>
+      </c>
+      <c r="AN177">
+        <v>2.11</v>
+      </c>
+      <c r="AO177">
+        <v>1.24</v>
+      </c>
+      <c r="AP177">
+        <v>1.16</v>
+      </c>
+      <c r="AQ177">
+        <v>1.33</v>
+      </c>
+      <c r="AR177">
+        <v>1.58</v>
+      </c>
+      <c r="AS177">
+        <v>1.31</v>
+      </c>
+      <c r="AT177">
+        <v>1.54</v>
+      </c>
+      <c r="AU177">
+        <v>1.22</v>
+      </c>
+      <c r="AV177">
+        <v>1.71</v>
+      </c>
+      <c r="AW177">
+        <v>2.93</v>
+      </c>
+      <c r="AX177">
+        <v>4.4</v>
+      </c>
+      <c r="AY177">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ177">
+        <v>1.29</v>
+      </c>
+      <c r="BA177">
+        <v>1.4</v>
+      </c>
+      <c r="BB177">
+        <v>1.68</v>
+      </c>
+      <c r="BC177">
+        <v>2.09</v>
+      </c>
+      <c r="BD177">
+        <v>2.63</v>
+      </c>
+      <c r="BE177">
+        <v>3.96</v>
+      </c>
+      <c r="BF177">
+        <v>5</v>
+      </c>
+      <c r="BG177">
+        <v>9</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>5</v>
+      </c>
+      <c r="BJ177">
+        <v>9</v>
+      </c>
+      <c r="BK177">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2367211</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44996.52083333334</v>
+      </c>
+      <c r="F178">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>66</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178" t="s">
+        <v>83</v>
+      </c>
+      <c r="P178" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q178">
+        <v>8</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>2.6</v>
+      </c>
+      <c r="U178">
+        <v>2.1</v>
+      </c>
+      <c r="V178">
+        <v>4.75</v>
+      </c>
+      <c r="W178">
+        <v>1.44</v>
+      </c>
+      <c r="X178">
+        <v>2.63</v>
+      </c>
+      <c r="Y178">
+        <v>3.25</v>
+      </c>
+      <c r="Z178">
+        <v>1.33</v>
+      </c>
+      <c r="AA178">
+        <v>9</v>
+      </c>
+      <c r="AB178">
+        <v>1.07</v>
+      </c>
+      <c r="AC178">
+        <v>1.8</v>
+      </c>
+      <c r="AD178">
+        <v>3.4</v>
+      </c>
+      <c r="AE178">
+        <v>3.8</v>
+      </c>
+      <c r="AF178">
+        <v>1.03</v>
+      </c>
+      <c r="AG178">
+        <v>8</v>
+      </c>
+      <c r="AH178">
+        <v>1.33</v>
+      </c>
+      <c r="AI178">
+        <v>2.91</v>
+      </c>
+      <c r="AJ178">
+        <v>2.2</v>
+      </c>
+      <c r="AK178">
+        <v>1.65</v>
+      </c>
+      <c r="AL178">
+        <v>2</v>
+      </c>
+      <c r="AM178">
+        <v>1.73</v>
+      </c>
+      <c r="AN178">
+        <v>1.14</v>
+      </c>
+      <c r="AO178">
+        <v>1.26</v>
+      </c>
+      <c r="AP178">
+        <v>2.11</v>
+      </c>
+      <c r="AQ178">
+        <v>1.17</v>
+      </c>
+      <c r="AR178">
+        <v>0.75</v>
+      </c>
+      <c r="AS178">
+        <v>1.08</v>
+      </c>
+      <c r="AT178">
+        <v>0.92</v>
+      </c>
+      <c r="AU178">
+        <v>1.41</v>
+      </c>
+      <c r="AV178">
+        <v>1.24</v>
+      </c>
+      <c r="AW178">
+        <v>2.65</v>
+      </c>
+      <c r="AX178">
+        <v>1.33</v>
+      </c>
+      <c r="AY178">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ178">
+        <v>4.1</v>
+      </c>
+      <c r="BA178">
+        <v>1.5</v>
+      </c>
+      <c r="BB178">
+        <v>1.77</v>
+      </c>
+      <c r="BC178">
+        <v>2.22</v>
+      </c>
+      <c r="BD178">
+        <v>3.34</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>2</v>
+      </c>
+      <c r="BG178">
+        <v>4</v>
+      </c>
+      <c r="BH178">
+        <v>9</v>
+      </c>
+      <c r="BI178">
+        <v>2</v>
+      </c>
+      <c r="BJ178">
+        <v>11</v>
+      </c>
+      <c r="BK178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2367212</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44996.5625</v>
+      </c>
+      <c r="F179">
+        <v>26</v>
+      </c>
+      <c r="G179" t="s">
+        <v>69</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>191</v>
+      </c>
+      <c r="P179" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q179">
+        <v>6</v>
+      </c>
+      <c r="R179">
+        <v>9</v>
+      </c>
+      <c r="S179">
+        <v>15</v>
+      </c>
+      <c r="T179">
+        <v>3.5</v>
+      </c>
+      <c r="U179">
+        <v>2.05</v>
+      </c>
+      <c r="V179">
+        <v>3.2</v>
+      </c>
+      <c r="W179">
+        <v>1.44</v>
+      </c>
+      <c r="X179">
+        <v>2.63</v>
+      </c>
+      <c r="Y179">
+        <v>3</v>
+      </c>
+      <c r="Z179">
+        <v>1.36</v>
+      </c>
+      <c r="AA179">
+        <v>9</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>2.75</v>
+      </c>
+      <c r="AD179">
+        <v>3</v>
+      </c>
+      <c r="AE179">
+        <v>2.4</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>9</v>
+      </c>
+      <c r="AH179">
+        <v>1.3</v>
+      </c>
+      <c r="AI179">
+        <v>3.3</v>
+      </c>
+      <c r="AJ179">
+        <v>2.1</v>
+      </c>
+      <c r="AK179">
+        <v>1.7</v>
+      </c>
+      <c r="AL179">
+        <v>1.83</v>
+      </c>
+      <c r="AM179">
+        <v>1.83</v>
+      </c>
+      <c r="AN179">
+        <v>1.5</v>
+      </c>
+      <c r="AO179">
+        <v>1.33</v>
+      </c>
+      <c r="AP179">
+        <v>1.36</v>
+      </c>
+      <c r="AQ179">
+        <v>0.75</v>
+      </c>
+      <c r="AR179">
+        <v>1.08</v>
+      </c>
+      <c r="AS179">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT179">
+        <v>1.23</v>
+      </c>
+      <c r="AU179">
+        <v>1</v>
+      </c>
+      <c r="AV179">
+        <v>1.1</v>
+      </c>
+      <c r="AW179">
+        <v>2.1</v>
+      </c>
+      <c r="AX179">
+        <v>2.05</v>
+      </c>
+      <c r="AY179">
+        <v>7</v>
+      </c>
+      <c r="AZ179">
+        <v>2.05</v>
+      </c>
+      <c r="BA179">
+        <v>1.4</v>
+      </c>
+      <c r="BB179">
+        <v>1.68</v>
+      </c>
+      <c r="BC179">
+        <v>2.09</v>
+      </c>
+      <c r="BD179">
+        <v>2.63</v>
+      </c>
+      <c r="BE179">
+        <v>3.96</v>
+      </c>
+      <c r="BF179">
+        <v>7</v>
+      </c>
+      <c r="BG179">
+        <v>8</v>
+      </c>
+      <c r="BH179">
+        <v>3</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>10</v>
+      </c>
+      <c r="BK179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2367214</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F180">
+        <v>26</v>
+      </c>
+      <c r="G180" t="s">
+        <v>67</v>
+      </c>
+      <c r="H180" t="s">
+        <v>73</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>83</v>
+      </c>
+      <c r="P180" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>4</v>
+      </c>
+      <c r="T180">
+        <v>3.1</v>
+      </c>
+      <c r="U180">
+        <v>2.05</v>
+      </c>
+      <c r="V180">
+        <v>3.75</v>
+      </c>
+      <c r="W180">
+        <v>1.41</v>
+      </c>
+      <c r="X180">
+        <v>2.77</v>
+      </c>
+      <c r="Y180">
+        <v>2.9</v>
+      </c>
+      <c r="Z180">
+        <v>1.38</v>
+      </c>
+      <c r="AA180">
+        <v>7.4</v>
+      </c>
+      <c r="AB180">
+        <v>1.07</v>
+      </c>
+      <c r="AC180">
+        <v>2.25</v>
+      </c>
+      <c r="AD180">
+        <v>3.1</v>
+      </c>
+      <c r="AE180">
+        <v>2.9</v>
+      </c>
+      <c r="AF180">
+        <v>1.05</v>
+      </c>
+      <c r="AG180">
+        <v>10.75</v>
+      </c>
+      <c r="AH180">
+        <v>1.3</v>
+      </c>
+      <c r="AI180">
+        <v>3.18</v>
+      </c>
+      <c r="AJ180">
+        <v>2.15</v>
+      </c>
+      <c r="AK180">
+        <v>1.67</v>
+      </c>
+      <c r="AL180">
+        <v>1.83</v>
+      </c>
+      <c r="AM180">
+        <v>1.83</v>
+      </c>
+      <c r="AN180">
+        <v>1.46</v>
+      </c>
+      <c r="AO180">
+        <v>1.3</v>
+      </c>
+      <c r="AP180">
+        <v>1.46</v>
+      </c>
+      <c r="AQ180">
+        <v>1.83</v>
+      </c>
+      <c r="AR180">
+        <v>1.08</v>
+      </c>
+      <c r="AS180">
+        <v>1.69</v>
+      </c>
+      <c r="AT180">
+        <v>1.23</v>
+      </c>
+      <c r="AU180">
+        <v>1.96</v>
+      </c>
+      <c r="AV180">
+        <v>1.56</v>
+      </c>
+      <c r="AW180">
+        <v>3.52</v>
+      </c>
+      <c r="AX180">
+        <v>1.68</v>
+      </c>
+      <c r="AY180">
+        <v>7.3</v>
+      </c>
+      <c r="AZ180">
+        <v>2.59</v>
+      </c>
+      <c r="BA180">
+        <v>1.4</v>
+      </c>
+      <c r="BB180">
+        <v>1.66</v>
+      </c>
+      <c r="BC180">
+        <v>2.05</v>
+      </c>
+      <c r="BD180">
+        <v>2.63</v>
+      </c>
+      <c r="BE180">
+        <v>3.86</v>
+      </c>
+      <c r="BF180">
+        <v>3</v>
+      </c>
+      <c r="BG180">
+        <v>4</v>
+      </c>
+      <c r="BH180">
+        <v>4</v>
+      </c>
+      <c r="BI180">
+        <v>5</v>
+      </c>
+      <c r="BJ180">
+        <v>7</v>
+      </c>
+      <c r="BK180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2367215</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44996.60416666666</v>
+      </c>
+      <c r="F181">
+        <v>26</v>
+      </c>
+      <c r="G181" t="s">
+        <v>77</v>
+      </c>
+      <c r="H181" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>192</v>
+      </c>
+      <c r="P181" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q181">
+        <v>6</v>
+      </c>
+      <c r="R181">
+        <v>5</v>
+      </c>
+      <c r="S181">
+        <v>11</v>
+      </c>
+      <c r="T181">
+        <v>3.5</v>
+      </c>
+      <c r="U181">
+        <v>2.1</v>
+      </c>
+      <c r="V181">
+        <v>3.1</v>
+      </c>
+      <c r="W181">
+        <v>1.4</v>
+      </c>
+      <c r="X181">
+        <v>2.75</v>
+      </c>
+      <c r="Y181">
+        <v>2.75</v>
+      </c>
+      <c r="Z181">
+        <v>1.4</v>
+      </c>
+      <c r="AA181">
+        <v>8</v>
+      </c>
+      <c r="AB181">
+        <v>1.08</v>
+      </c>
+      <c r="AC181">
+        <v>2.75</v>
+      </c>
+      <c r="AD181">
+        <v>3.2</v>
+      </c>
+      <c r="AE181">
+        <v>2.3</v>
+      </c>
+      <c r="AF181">
+        <v>1.04</v>
+      </c>
+      <c r="AG181">
+        <v>12</v>
+      </c>
+      <c r="AH181">
+        <v>1.27</v>
+      </c>
+      <c r="AI181">
+        <v>3.42</v>
+      </c>
+      <c r="AJ181">
+        <v>2.05</v>
+      </c>
+      <c r="AK181">
+        <v>1.75</v>
+      </c>
+      <c r="AL181">
+        <v>1.8</v>
+      </c>
+      <c r="AM181">
+        <v>1.91</v>
+      </c>
+      <c r="AN181">
+        <v>1.55</v>
+      </c>
+      <c r="AO181">
+        <v>1.29</v>
+      </c>
+      <c r="AP181">
+        <v>1.39</v>
+      </c>
+      <c r="AQ181">
+        <v>0.83</v>
+      </c>
+      <c r="AR181">
+        <v>1.17</v>
+      </c>
+      <c r="AS181">
+        <v>1</v>
+      </c>
+      <c r="AT181">
+        <v>1.08</v>
+      </c>
+      <c r="AU181">
+        <v>1.45</v>
+      </c>
+      <c r="AV181">
+        <v>1.21</v>
+      </c>
+      <c r="AW181">
+        <v>2.66</v>
+      </c>
+      <c r="AX181">
+        <v>2.07</v>
+      </c>
+      <c r="AY181">
+        <v>7.2</v>
+      </c>
+      <c r="AZ181">
+        <v>2.02</v>
+      </c>
+      <c r="BA181">
+        <v>1.4</v>
+      </c>
+      <c r="BB181">
+        <v>1.64</v>
+      </c>
+      <c r="BC181">
+        <v>2.03</v>
+      </c>
+      <c r="BD181">
+        <v>2.63</v>
+      </c>
+      <c r="BE181">
+        <v>3.74</v>
+      </c>
+      <c r="BF181">
+        <v>4</v>
+      </c>
+      <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>7</v>
+      </c>
+      <c r="BI181">
+        <v>6</v>
+      </c>
+      <c r="BJ181">
+        <v>11</v>
+      </c>
+      <c r="BK181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2367213</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.63541666666</v>
+      </c>
+      <c r="F182">
+        <v>26</v>
+      </c>
+      <c r="G182" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s">
+        <v>70</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>193</v>
+      </c>
+      <c r="P182" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q182">
+        <v>9</v>
+      </c>
+      <c r="R182">
+        <v>5</v>
+      </c>
+      <c r="S182">
+        <v>14</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>2.3</v>
+      </c>
+      <c r="V182">
+        <v>7</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>3</v>
+      </c>
+      <c r="Y182">
+        <v>2.63</v>
+      </c>
+      <c r="Z182">
+        <v>1.44</v>
+      </c>
+      <c r="AA182">
+        <v>7</v>
+      </c>
+      <c r="AB182">
+        <v>1.1</v>
+      </c>
+      <c r="AC182">
+        <v>1.4</v>
+      </c>
+      <c r="AD182">
+        <v>4.35</v>
+      </c>
+      <c r="AE182">
+        <v>7.6</v>
+      </c>
+      <c r="AF182">
+        <v>1.03</v>
+      </c>
+      <c r="AG182">
+        <v>10</v>
+      </c>
+      <c r="AH182">
+        <v>1.23</v>
+      </c>
+      <c r="AI182">
+        <v>3.74</v>
+      </c>
+      <c r="AJ182">
+        <v>1.83</v>
+      </c>
+      <c r="AK182">
+        <v>1.97</v>
+      </c>
+      <c r="AL182">
+        <v>2.1</v>
+      </c>
+      <c r="AM182">
+        <v>1.67</v>
+      </c>
+      <c r="AN182">
+        <v>1.05</v>
+      </c>
+      <c r="AO182">
+        <v>1.15</v>
+      </c>
+      <c r="AP182">
+        <v>2.95</v>
+      </c>
+      <c r="AQ182">
+        <v>1.83</v>
+      </c>
+      <c r="AR182">
+        <v>1</v>
+      </c>
+      <c r="AS182">
+        <v>1.92</v>
+      </c>
+      <c r="AT182">
+        <v>0.92</v>
+      </c>
+      <c r="AU182">
+        <v>1.85</v>
+      </c>
+      <c r="AV182">
+        <v>1.4</v>
+      </c>
+      <c r="AW182">
+        <v>3.25</v>
+      </c>
+      <c r="AX182">
+        <v>1.26</v>
+      </c>
+      <c r="AY182">
+        <v>12.5</v>
+      </c>
+      <c r="AZ182">
+        <v>4.1</v>
+      </c>
+      <c r="BA182">
+        <v>1.4</v>
+      </c>
+      <c r="BB182">
+        <v>1.66</v>
+      </c>
+      <c r="BC182">
+        <v>2.06</v>
+      </c>
+      <c r="BD182">
+        <v>2.63</v>
+      </c>
+      <c r="BE182">
+        <v>3.9</v>
+      </c>
+      <c r="BF182">
+        <v>6</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
+        <v>4</v>
+      </c>
+      <c r="BI182">
+        <v>4</v>
+      </c>
+      <c r="BJ182">
+        <v>10</v>
+      </c>
+      <c r="BK182">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,10 +697,10 @@
     <t>['16']</t>
   </si>
   <si>
-    <t>['8', '49']</t>
+    <t>['29', '31', '44', '70']</t>
   </si>
   <si>
-    <t>['29', '31', '44', '70']</t>
+    <t>['8', '49']</t>
   </si>
   <si>
     <t>['11']</t>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>['68', '90+4']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT8">
         <v>1.31</v>
@@ -3868,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4823,7 +4826,7 @@
         <v>1.92</v>
       </c>
       <c r="AT19">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU19">
         <v>2.11</v>
@@ -5646,7 +5649,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2367062</v>
+        <v>2367056</v>
       </c>
       <c r="C24" t="s">
         <v>63</v>
@@ -5661,10 +5664,10 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -5676,82 +5679,82 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
+        <v>2.05</v>
+      </c>
+      <c r="V24">
         <v>3.25</v>
       </c>
-      <c r="U24">
-        <v>2.1</v>
-      </c>
-      <c r="V24">
-        <v>3.4</v>
-      </c>
       <c r="W24">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X24">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="Y24">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="Z24">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA24">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AB24">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AD24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AE24">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AF24">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG24">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="AH24">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AI24">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="AJ24">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AK24">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AL24">
         <v>1.83</v>
@@ -5760,76 +5763,76 @@
         <v>1.83</v>
       </c>
       <c r="AN24">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AO24">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AP24">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AQ24">
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24">
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AU24">
-        <v>1.43</v>
+        <v>0.68</v>
       </c>
       <c r="AV24">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="AW24">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AX24">
-        <v>2.51</v>
+        <v>2.16</v>
       </c>
       <c r="AY24">
         <v>7.2</v>
       </c>
       <c r="AZ24">
-        <v>1.76</v>
+        <v>1.99</v>
       </c>
       <c r="BA24">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BB24">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="BC24">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="BD24">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="BE24">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BF24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
         <v>4</v>
       </c>
-      <c r="BJ24">
-        <v>12</v>
-      </c>
       <c r="BK24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5837,7 +5840,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2367056</v>
+        <v>2367062</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -5852,10 +5855,10 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5867,82 +5870,82 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T25">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V25">
+        <v>3.4</v>
+      </c>
+      <c r="W25">
+        <v>1.41</v>
+      </c>
+      <c r="X25">
+        <v>2.69</v>
+      </c>
+      <c r="Y25">
+        <v>2.93</v>
+      </c>
+      <c r="Z25">
+        <v>1.35</v>
+      </c>
+      <c r="AA25">
+        <v>7</v>
+      </c>
+      <c r="AB25">
+        <v>1.07</v>
+      </c>
+      <c r="AC25">
+        <v>2.5</v>
+      </c>
+      <c r="AD25">
         <v>3.25</v>
       </c>
-      <c r="W25">
-        <v>1.44</v>
-      </c>
-      <c r="X25">
-        <v>2.58</v>
-      </c>
-      <c r="Y25">
+      <c r="AE25">
+        <v>2.6</v>
+      </c>
+      <c r="AF25">
+        <v>1.03</v>
+      </c>
+      <c r="AG25">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH25">
+        <v>1.31</v>
+      </c>
+      <c r="AI25">
         <v>3.04</v>
       </c>
-      <c r="Z25">
-        <v>1.33</v>
-      </c>
-      <c r="AA25">
-        <v>7.7</v>
-      </c>
-      <c r="AB25">
-        <v>1.05</v>
-      </c>
-      <c r="AC25">
-        <v>2.75</v>
-      </c>
-      <c r="AD25">
-        <v>3.1</v>
-      </c>
-      <c r="AE25">
-        <v>2.45</v>
-      </c>
-      <c r="AF25">
-        <v>1.04</v>
-      </c>
-      <c r="AG25">
-        <v>7.9</v>
-      </c>
-      <c r="AH25">
-        <v>1.34</v>
-      </c>
-      <c r="AI25">
-        <v>2.88</v>
-      </c>
       <c r="AJ25">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="AK25">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AL25">
         <v>1.83</v>
@@ -5951,76 +5954,76 @@
         <v>1.83</v>
       </c>
       <c r="AN25">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AO25">
+        <v>1.28</v>
+      </c>
+      <c r="AP25">
+        <v>1.28</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
         <v>1.31</v>
       </c>
-      <c r="AP25">
-        <v>1.37</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>1</v>
-      </c>
-      <c r="AS25">
-        <v>1</v>
-      </c>
-      <c r="AT25">
-        <v>1</v>
-      </c>
       <c r="AU25">
-        <v>0.68</v>
+        <v>1.43</v>
       </c>
       <c r="AV25">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="AW25">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="AX25">
-        <v>2.16</v>
+        <v>2.51</v>
       </c>
       <c r="AY25">
         <v>7.2</v>
       </c>
       <c r="AZ25">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="BA25">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="BB25">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="BC25">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="BD25">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="BE25">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="BF25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH25">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BI25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BK25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -6539,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT28">
         <v>2.54</v>
@@ -8070,7 +8073,7 @@
         <v>1.08</v>
       </c>
       <c r="AT36">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU36">
         <v>1.33</v>
@@ -9213,7 +9216,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT42">
         <v>1.69</v>
@@ -10171,7 +10174,7 @@
         <v>0.92</v>
       </c>
       <c r="AT47">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU47">
         <v>1.36</v>
@@ -10932,7 +10935,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT51">
         <v>0.92</v>
@@ -12845,7 +12848,7 @@
         <v>0.62</v>
       </c>
       <c r="AT61">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU61">
         <v>1.31</v>
@@ -13668,7 +13671,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2367104</v>
+        <v>2367101</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
@@ -13683,175 +13686,175 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O66" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="P66" t="s">
         <v>227</v>
       </c>
       <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+      <c r="T66">
+        <v>2.6</v>
+      </c>
+      <c r="U66">
+        <v>2.1</v>
+      </c>
+      <c r="V66">
+        <v>4.75</v>
+      </c>
+      <c r="W66">
+        <v>1.4</v>
+      </c>
+      <c r="X66">
+        <v>2.75</v>
+      </c>
+      <c r="Y66">
+        <v>3.15</v>
+      </c>
+      <c r="Z66">
+        <v>1.3</v>
+      </c>
+      <c r="AA66">
+        <v>7.2</v>
+      </c>
+      <c r="AB66">
+        <v>1.06</v>
+      </c>
+      <c r="AC66">
+        <v>1.83</v>
+      </c>
+      <c r="AD66">
+        <v>3.3</v>
+      </c>
+      <c r="AE66">
+        <v>4</v>
+      </c>
+      <c r="AF66">
+        <v>1.04</v>
+      </c>
+      <c r="AG66">
+        <v>7.9</v>
+      </c>
+      <c r="AH66">
+        <v>1.38</v>
+      </c>
+      <c r="AI66">
+        <v>2.9</v>
+      </c>
+      <c r="AJ66">
+        <v>2.15</v>
+      </c>
+      <c r="AK66">
+        <v>1.67</v>
+      </c>
+      <c r="AL66">
+        <v>2</v>
+      </c>
+      <c r="AM66">
+        <v>1.73</v>
+      </c>
+      <c r="AN66">
+        <v>1.22</v>
+      </c>
+      <c r="AO66">
+        <v>1.29</v>
+      </c>
+      <c r="AP66">
+        <v>1.79</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1.25</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>1.23</v>
+      </c>
+      <c r="AU66">
+        <v>1.55</v>
+      </c>
+      <c r="AV66">
+        <v>1.04</v>
+      </c>
+      <c r="AW66">
+        <v>2.59</v>
+      </c>
+      <c r="AX66">
+        <v>1.61</v>
+      </c>
+      <c r="AY66">
+        <v>7.6</v>
+      </c>
+      <c r="AZ66">
+        <v>2.84</v>
+      </c>
+      <c r="BA66">
+        <v>1.53</v>
+      </c>
+      <c r="BB66">
+        <v>1.78</v>
+      </c>
+      <c r="BC66">
+        <v>2.26</v>
+      </c>
+      <c r="BD66">
+        <v>3.1</v>
+      </c>
+      <c r="BE66">
+        <v>4.5</v>
+      </c>
+      <c r="BF66">
+        <v>3</v>
+      </c>
+      <c r="BG66">
         <v>6</v>
       </c>
-      <c r="R66">
-        <v>4</v>
-      </c>
-      <c r="S66">
-        <v>10</v>
-      </c>
-      <c r="T66">
-        <v>4.75</v>
-      </c>
-      <c r="U66">
-        <v>2.2</v>
-      </c>
-      <c r="V66">
-        <v>2.4</v>
-      </c>
-      <c r="W66">
-        <v>1.36</v>
-      </c>
-      <c r="X66">
-        <v>2.89</v>
-      </c>
-      <c r="Y66">
-        <v>2.69</v>
-      </c>
-      <c r="Z66">
-        <v>1.41</v>
-      </c>
-      <c r="AA66">
-        <v>5.8</v>
-      </c>
-      <c r="AB66">
-        <v>1.1</v>
-      </c>
-      <c r="AC66">
-        <v>4.2</v>
-      </c>
-      <c r="AD66">
-        <v>3.5</v>
-      </c>
-      <c r="AE66">
-        <v>1.75</v>
-      </c>
-      <c r="AF66">
-        <v>1.05</v>
-      </c>
-      <c r="AG66">
-        <v>10</v>
-      </c>
-      <c r="AH66">
-        <v>1.26</v>
-      </c>
-      <c r="AI66">
-        <v>3.5</v>
-      </c>
-      <c r="AJ66">
-        <v>1.85</v>
-      </c>
-      <c r="AK66">
-        <v>1.95</v>
-      </c>
-      <c r="AL66">
-        <v>1.8</v>
-      </c>
-      <c r="AM66">
-        <v>1.91</v>
-      </c>
-      <c r="AN66">
-        <v>1.65</v>
-      </c>
-      <c r="AO66">
-        <v>1.27</v>
-      </c>
-      <c r="AP66">
-        <v>1.27</v>
-      </c>
-      <c r="AQ66">
-        <v>1</v>
-      </c>
-      <c r="AR66">
-        <v>2.5</v>
-      </c>
-      <c r="AS66">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AT66">
-        <v>1.69</v>
-      </c>
-      <c r="AU66">
-        <v>1.21</v>
-      </c>
-      <c r="AV66">
-        <v>1.57</v>
-      </c>
-      <c r="AW66">
-        <v>2.78</v>
-      </c>
-      <c r="AX66">
-        <v>2.67</v>
-      </c>
-      <c r="AY66">
-        <v>7.2</v>
-      </c>
-      <c r="AZ66">
-        <v>1.69</v>
-      </c>
-      <c r="BA66">
-        <v>1.51</v>
-      </c>
-      <c r="BB66">
-        <v>1.85</v>
-      </c>
-      <c r="BC66">
-        <v>2.34</v>
-      </c>
-      <c r="BD66">
-        <v>0</v>
-      </c>
-      <c r="BE66">
-        <v>0</v>
-      </c>
-      <c r="BF66">
-        <v>2</v>
-      </c>
-      <c r="BG66">
-        <v>7</v>
-      </c>
       <c r="BH66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BK66">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:63">
@@ -13859,7 +13862,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2367101</v>
+        <v>2367104</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
@@ -13874,175 +13877,175 @@
         <v>10</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="P67" t="s">
         <v>228</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R67">
+        <v>4</v>
+      </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+      <c r="T67">
+        <v>4.75</v>
+      </c>
+      <c r="U67">
+        <v>2.2</v>
+      </c>
+      <c r="V67">
+        <v>2.4</v>
+      </c>
+      <c r="W67">
+        <v>1.36</v>
+      </c>
+      <c r="X67">
+        <v>2.89</v>
+      </c>
+      <c r="Y67">
+        <v>2.69</v>
+      </c>
+      <c r="Z67">
+        <v>1.41</v>
+      </c>
+      <c r="AA67">
+        <v>5.8</v>
+      </c>
+      <c r="AB67">
+        <v>1.1</v>
+      </c>
+      <c r="AC67">
+        <v>4.2</v>
+      </c>
+      <c r="AD67">
+        <v>3.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.75</v>
+      </c>
+      <c r="AF67">
+        <v>1.05</v>
+      </c>
+      <c r="AG67">
+        <v>10</v>
+      </c>
+      <c r="AH67">
+        <v>1.26</v>
+      </c>
+      <c r="AI67">
+        <v>3.5</v>
+      </c>
+      <c r="AJ67">
+        <v>1.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.95</v>
+      </c>
+      <c r="AL67">
+        <v>1.8</v>
+      </c>
+      <c r="AM67">
+        <v>1.91</v>
+      </c>
+      <c r="AN67">
+        <v>1.65</v>
+      </c>
+      <c r="AO67">
+        <v>1.27</v>
+      </c>
+      <c r="AP67">
+        <v>1.27</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>2.5</v>
+      </c>
+      <c r="AS67">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT67">
+        <v>1.69</v>
+      </c>
+      <c r="AU67">
+        <v>1.21</v>
+      </c>
+      <c r="AV67">
+        <v>1.57</v>
+      </c>
+      <c r="AW67">
+        <v>2.78</v>
+      </c>
+      <c r="AX67">
+        <v>2.67</v>
+      </c>
+      <c r="AY67">
+        <v>7.2</v>
+      </c>
+      <c r="AZ67">
+        <v>1.69</v>
+      </c>
+      <c r="BA67">
+        <v>1.51</v>
+      </c>
+      <c r="BB67">
+        <v>1.85</v>
+      </c>
+      <c r="BC67">
+        <v>2.34</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>2</v>
+      </c>
+      <c r="BG67">
+        <v>7</v>
+      </c>
+      <c r="BH67">
+        <v>2</v>
+      </c>
+      <c r="BI67">
         <v>3</v>
       </c>
-      <c r="S67">
-        <v>3</v>
-      </c>
-      <c r="T67">
-        <v>2.6</v>
-      </c>
-      <c r="U67">
-        <v>2.1</v>
-      </c>
-      <c r="V67">
-        <v>4.75</v>
-      </c>
-      <c r="W67">
-        <v>1.4</v>
-      </c>
-      <c r="X67">
-        <v>2.75</v>
-      </c>
-      <c r="Y67">
-        <v>3.15</v>
-      </c>
-      <c r="Z67">
-        <v>1.3</v>
-      </c>
-      <c r="AA67">
-        <v>7.2</v>
-      </c>
-      <c r="AB67">
-        <v>1.06</v>
-      </c>
-      <c r="AC67">
-        <v>1.83</v>
-      </c>
-      <c r="AD67">
-        <v>3.3</v>
-      </c>
-      <c r="AE67">
+      <c r="BJ67">
         <v>4</v>
       </c>
-      <c r="AF67">
-        <v>1.04</v>
-      </c>
-      <c r="AG67">
-        <v>7.9</v>
-      </c>
-      <c r="AH67">
-        <v>1.38</v>
-      </c>
-      <c r="AI67">
-        <v>2.9</v>
-      </c>
-      <c r="AJ67">
-        <v>2.15</v>
-      </c>
-      <c r="AK67">
-        <v>1.67</v>
-      </c>
-      <c r="AL67">
-        <v>2</v>
-      </c>
-      <c r="AM67">
-        <v>1.73</v>
-      </c>
-      <c r="AN67">
-        <v>1.22</v>
-      </c>
-      <c r="AO67">
-        <v>1.29</v>
-      </c>
-      <c r="AP67">
-        <v>1.79</v>
-      </c>
-      <c r="AQ67">
-        <v>1</v>
-      </c>
-      <c r="AR67">
-        <v>1.25</v>
-      </c>
-      <c r="AS67">
-        <v>1</v>
-      </c>
-      <c r="AT67">
-        <v>1.23</v>
-      </c>
-      <c r="AU67">
-        <v>1.55</v>
-      </c>
-      <c r="AV67">
-        <v>1.04</v>
-      </c>
-      <c r="AW67">
-        <v>2.59</v>
-      </c>
-      <c r="AX67">
-        <v>1.61</v>
-      </c>
-      <c r="AY67">
-        <v>7.6</v>
-      </c>
-      <c r="AZ67">
-        <v>2.84</v>
-      </c>
-      <c r="BA67">
-        <v>1.53</v>
-      </c>
-      <c r="BB67">
-        <v>1.78</v>
-      </c>
-      <c r="BC67">
-        <v>2.26</v>
-      </c>
-      <c r="BD67">
-        <v>3.1</v>
-      </c>
-      <c r="BE67">
-        <v>4.5</v>
-      </c>
-      <c r="BF67">
-        <v>3</v>
-      </c>
-      <c r="BG67">
-        <v>6</v>
-      </c>
-      <c r="BH67">
-        <v>6</v>
-      </c>
-      <c r="BI67">
-        <v>2</v>
-      </c>
-      <c r="BJ67">
-        <v>9</v>
-      </c>
       <c r="BK67">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:63">
@@ -14561,7 +14564,7 @@
         <v>1</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT70">
         <v>0.92</v>
@@ -16092,7 +16095,7 @@
         <v>1.31</v>
       </c>
       <c r="AT78">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU78">
         <v>1.51</v>
@@ -17235,7 +17238,7 @@
         <v>1.2</v>
       </c>
       <c r="AS84">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT84">
         <v>1.08</v>
@@ -17429,7 +17432,7 @@
         <v>1.31</v>
       </c>
       <c r="AT85">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU85">
         <v>1.08</v>
@@ -18825,7 +18828,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2367126</v>
+        <v>2367131</v>
       </c>
       <c r="C93" t="s">
         <v>63</v>
@@ -18840,175 +18843,175 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>83</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S93">
         <v>5</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U93">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="W93">
+        <v>1.52</v>
+      </c>
+      <c r="X93">
+        <v>2.36</v>
+      </c>
+      <c r="Y93">
+        <v>3.34</v>
+      </c>
+      <c r="Z93">
+        <v>1.28</v>
+      </c>
+      <c r="AA93">
+        <v>9.5</v>
+      </c>
+      <c r="AB93">
+        <v>1.05</v>
+      </c>
+      <c r="AC93">
+        <v>2.88</v>
+      </c>
+      <c r="AD93">
+        <v>3</v>
+      </c>
+      <c r="AE93">
+        <v>2.45</v>
+      </c>
+      <c r="AF93">
+        <v>1.06</v>
+      </c>
+      <c r="AG93">
+        <v>6.6</v>
+      </c>
+      <c r="AH93">
+        <v>1.42</v>
+      </c>
+      <c r="AI93">
+        <v>2.57</v>
+      </c>
+      <c r="AJ93">
+        <v>2.4</v>
+      </c>
+      <c r="AK93">
+        <v>1.53</v>
+      </c>
+      <c r="AL93">
+        <v>2</v>
+      </c>
+      <c r="AM93">
+        <v>1.73</v>
+      </c>
+      <c r="AN93">
+        <v>1.53</v>
+      </c>
+      <c r="AO93">
+        <v>1.36</v>
+      </c>
+      <c r="AP93">
+        <v>1.4</v>
+      </c>
+      <c r="AQ93">
         <v>1.43</v>
       </c>
-      <c r="X93">
+      <c r="AR93">
+        <v>2.29</v>
+      </c>
+      <c r="AS93">
+        <v>1</v>
+      </c>
+      <c r="AT93">
+        <v>1.69</v>
+      </c>
+      <c r="AU93">
+        <v>1.22</v>
+      </c>
+      <c r="AV93">
+        <v>1.4</v>
+      </c>
+      <c r="AW93">
         <v>2.62</v>
       </c>
-      <c r="Y93">
-        <v>2.93</v>
-      </c>
-      <c r="Z93">
-        <v>1.35</v>
-      </c>
-      <c r="AA93">
-        <v>8.25</v>
-      </c>
-      <c r="AB93">
-        <v>1.06</v>
-      </c>
-      <c r="AC93">
-        <v>2.03</v>
-      </c>
-      <c r="AD93">
-        <v>3.2</v>
-      </c>
-      <c r="AE93">
-        <v>3.6</v>
-      </c>
-      <c r="AF93">
-        <v>1.03</v>
-      </c>
-      <c r="AG93">
-        <v>7.9</v>
-      </c>
-      <c r="AH93">
-        <v>1.32</v>
-      </c>
-      <c r="AI93">
-        <v>2.98</v>
-      </c>
-      <c r="AJ93">
-        <v>2.02</v>
-      </c>
-      <c r="AK93">
-        <v>1.75</v>
-      </c>
-      <c r="AL93">
+      <c r="AX93">
+        <v>2.39</v>
+      </c>
+      <c r="AY93">
+        <v>7.1</v>
+      </c>
+      <c r="AZ93">
         <v>1.83</v>
-      </c>
-      <c r="AM93">
-        <v>1.83</v>
-      </c>
-      <c r="AN93">
-        <v>1.24</v>
-      </c>
-      <c r="AO93">
-        <v>1.29</v>
-      </c>
-      <c r="AP93">
-        <v>1.74</v>
-      </c>
-      <c r="AQ93">
-        <v>1.5</v>
-      </c>
-      <c r="AR93">
-        <v>0.71</v>
-      </c>
-      <c r="AS93">
-        <v>1.17</v>
-      </c>
-      <c r="AT93">
-        <v>1</v>
-      </c>
-      <c r="AU93">
-        <v>1.46</v>
-      </c>
-      <c r="AV93">
-        <v>1.08</v>
-      </c>
-      <c r="AW93">
-        <v>2.54</v>
-      </c>
-      <c r="AX93">
-        <v>1.6</v>
-      </c>
-      <c r="AY93">
-        <v>7.5</v>
-      </c>
-      <c r="AZ93">
-        <v>2.88</v>
       </c>
       <c r="BA93">
         <v>1.47</v>
       </c>
       <c r="BB93">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="BC93">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="BD93">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BE93">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BF93">
+        <v>5</v>
+      </c>
+      <c r="BG93">
+        <v>2</v>
+      </c>
+      <c r="BH93">
+        <v>1</v>
+      </c>
+      <c r="BI93">
+        <v>8</v>
+      </c>
+      <c r="BJ93">
         <v>6</v>
       </c>
-      <c r="BG93">
-        <v>7</v>
-      </c>
-      <c r="BH93">
-        <v>9</v>
-      </c>
-      <c r="BI93">
-        <v>4</v>
-      </c>
-      <c r="BJ93">
-        <v>15</v>
-      </c>
       <c r="BK93">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:63">
@@ -19016,7 +19019,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2367131</v>
+        <v>2367126</v>
       </c>
       <c r="C94" t="s">
         <v>63</v>
@@ -19031,175 +19034,175 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O94" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S94">
         <v>5</v>
       </c>
       <c r="T94">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V94">
+        <v>4</v>
+      </c>
+      <c r="W94">
+        <v>1.43</v>
+      </c>
+      <c r="X94">
+        <v>2.62</v>
+      </c>
+      <c r="Y94">
+        <v>2.93</v>
+      </c>
+      <c r="Z94">
+        <v>1.35</v>
+      </c>
+      <c r="AA94">
+        <v>8.25</v>
+      </c>
+      <c r="AB94">
+        <v>1.06</v>
+      </c>
+      <c r="AC94">
+        <v>2.03</v>
+      </c>
+      <c r="AD94">
         <v>3.2</v>
       </c>
-      <c r="W94">
-        <v>1.52</v>
-      </c>
-      <c r="X94">
-        <v>2.36</v>
-      </c>
-      <c r="Y94">
-        <v>3.34</v>
-      </c>
-      <c r="Z94">
-        <v>1.28</v>
-      </c>
-      <c r="AA94">
-        <v>9.5</v>
-      </c>
-      <c r="AB94">
-        <v>1.05</v>
-      </c>
-      <c r="AC94">
+      <c r="AE94">
+        <v>3.6</v>
+      </c>
+      <c r="AF94">
+        <v>1.03</v>
+      </c>
+      <c r="AG94">
+        <v>7.9</v>
+      </c>
+      <c r="AH94">
+        <v>1.32</v>
+      </c>
+      <c r="AI94">
+        <v>2.98</v>
+      </c>
+      <c r="AJ94">
+        <v>2.02</v>
+      </c>
+      <c r="AK94">
+        <v>1.75</v>
+      </c>
+      <c r="AL94">
+        <v>1.83</v>
+      </c>
+      <c r="AM94">
+        <v>1.83</v>
+      </c>
+      <c r="AN94">
+        <v>1.24</v>
+      </c>
+      <c r="AO94">
+        <v>1.29</v>
+      </c>
+      <c r="AP94">
+        <v>1.74</v>
+      </c>
+      <c r="AQ94">
+        <v>1.5</v>
+      </c>
+      <c r="AR94">
+        <v>0.71</v>
+      </c>
+      <c r="AS94">
+        <v>1.08</v>
+      </c>
+      <c r="AT94">
+        <v>1</v>
+      </c>
+      <c r="AU94">
+        <v>1.46</v>
+      </c>
+      <c r="AV94">
+        <v>1.08</v>
+      </c>
+      <c r="AW94">
+        <v>2.54</v>
+      </c>
+      <c r="AX94">
+        <v>1.6</v>
+      </c>
+      <c r="AY94">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94">
         <v>2.88</v>
-      </c>
-      <c r="AD94">
-        <v>3</v>
-      </c>
-      <c r="AE94">
-        <v>2.45</v>
-      </c>
-      <c r="AF94">
-        <v>1.06</v>
-      </c>
-      <c r="AG94">
-        <v>6.6</v>
-      </c>
-      <c r="AH94">
-        <v>1.42</v>
-      </c>
-      <c r="AI94">
-        <v>2.57</v>
-      </c>
-      <c r="AJ94">
-        <v>2.4</v>
-      </c>
-      <c r="AK94">
-        <v>1.53</v>
-      </c>
-      <c r="AL94">
-        <v>2</v>
-      </c>
-      <c r="AM94">
-        <v>1.73</v>
-      </c>
-      <c r="AN94">
-        <v>1.53</v>
-      </c>
-      <c r="AO94">
-        <v>1.36</v>
-      </c>
-      <c r="AP94">
-        <v>1.4</v>
-      </c>
-      <c r="AQ94">
-        <v>1.43</v>
-      </c>
-      <c r="AR94">
-        <v>2.29</v>
-      </c>
-      <c r="AS94">
-        <v>1</v>
-      </c>
-      <c r="AT94">
-        <v>1.69</v>
-      </c>
-      <c r="AU94">
-        <v>1.22</v>
-      </c>
-      <c r="AV94">
-        <v>1.4</v>
-      </c>
-      <c r="AW94">
-        <v>2.62</v>
-      </c>
-      <c r="AX94">
-        <v>2.39</v>
-      </c>
-      <c r="AY94">
-        <v>7.1</v>
-      </c>
-      <c r="AZ94">
-        <v>1.83</v>
       </c>
       <c r="BA94">
         <v>1.47</v>
       </c>
       <c r="BB94">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="BC94">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="BD94">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BE94">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BF94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG94">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH94">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BI94">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ94">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BK94">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:63">
@@ -20544,7 +20547,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>2367133</v>
+        <v>2367136</v>
       </c>
       <c r="C102" t="s">
         <v>63</v>
@@ -20559,10 +20562,10 @@
         <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -20574,145 +20577,145 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M102">
         <v>0</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="P102" t="s">
         <v>83</v>
       </c>
       <c r="Q102">
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <v>11</v>
+      </c>
+      <c r="S102">
+        <v>13</v>
+      </c>
+      <c r="T102">
+        <v>4</v>
+      </c>
+      <c r="U102">
+        <v>2.38</v>
+      </c>
+      <c r="V102">
+        <v>2.4</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>2.95</v>
+      </c>
+      <c r="Y102">
+        <v>2.7</v>
+      </c>
+      <c r="Z102">
+        <v>1.41</v>
+      </c>
+      <c r="AA102">
+        <v>7.5</v>
+      </c>
+      <c r="AB102">
+        <v>1.09</v>
+      </c>
+      <c r="AC102">
+        <v>3.4</v>
+      </c>
+      <c r="AD102">
+        <v>3.75</v>
+      </c>
+      <c r="AE102">
+        <v>1.8</v>
+      </c>
+      <c r="AF102">
+        <v>1.03</v>
+      </c>
+      <c r="AG102">
+        <v>13</v>
+      </c>
+      <c r="AH102">
+        <v>1.25</v>
+      </c>
+      <c r="AI102">
+        <v>3.75</v>
+      </c>
+      <c r="AJ102">
+        <v>1.67</v>
+      </c>
+      <c r="AK102">
+        <v>2.15</v>
+      </c>
+      <c r="AL102">
+        <v>1.62</v>
+      </c>
+      <c r="AM102">
+        <v>2.2</v>
+      </c>
+      <c r="AN102">
+        <v>1.74</v>
+      </c>
+      <c r="AO102">
+        <v>1.3</v>
+      </c>
+      <c r="AP102">
+        <v>1.32</v>
+      </c>
+      <c r="AQ102">
+        <v>0.83</v>
+      </c>
+      <c r="AR102">
+        <v>1</v>
+      </c>
+      <c r="AS102">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT102">
+        <v>1.23</v>
+      </c>
+      <c r="AU102">
+        <v>1.14</v>
+      </c>
+      <c r="AV102">
+        <v>1.54</v>
+      </c>
+      <c r="AW102">
+        <v>2.68</v>
+      </c>
+      <c r="AX102">
+        <v>2.73</v>
+      </c>
+      <c r="AY102">
+        <v>6.9</v>
+      </c>
+      <c r="AZ102">
+        <v>1.7</v>
+      </c>
+      <c r="BA102">
+        <v>1.41</v>
+      </c>
+      <c r="BB102">
+        <v>1.76</v>
+      </c>
+      <c r="BC102">
+        <v>2.22</v>
+      </c>
+      <c r="BD102">
+        <v>3.15</v>
+      </c>
+      <c r="BE102">
+        <v>4.5</v>
+      </c>
+      <c r="BF102">
         <v>3</v>
-      </c>
-      <c r="R102">
-        <v>4</v>
-      </c>
-      <c r="S102">
-        <v>7</v>
-      </c>
-      <c r="T102">
-        <v>2.88</v>
-      </c>
-      <c r="U102">
-        <v>2.1</v>
-      </c>
-      <c r="V102">
-        <v>4</v>
-      </c>
-      <c r="W102">
-        <v>1.45</v>
-      </c>
-      <c r="X102">
-        <v>2.55</v>
-      </c>
-      <c r="Y102">
-        <v>3.1</v>
-      </c>
-      <c r="Z102">
-        <v>1.32</v>
-      </c>
-      <c r="AA102">
-        <v>7.6</v>
-      </c>
-      <c r="AB102">
-        <v>1.05</v>
-      </c>
-      <c r="AC102">
-        <v>2.05</v>
-      </c>
-      <c r="AD102">
-        <v>3.1</v>
-      </c>
-      <c r="AE102">
-        <v>3.3</v>
-      </c>
-      <c r="AF102">
-        <v>1.07</v>
-      </c>
-      <c r="AG102">
-        <v>7.5</v>
-      </c>
-      <c r="AH102">
-        <v>1.38</v>
-      </c>
-      <c r="AI102">
-        <v>2.8</v>
-      </c>
-      <c r="AJ102">
-        <v>2.08</v>
-      </c>
-      <c r="AK102">
-        <v>1.73</v>
-      </c>
-      <c r="AL102">
-        <v>1.83</v>
-      </c>
-      <c r="AM102">
-        <v>1.83</v>
-      </c>
-      <c r="AN102">
-        <v>1.28</v>
-      </c>
-      <c r="AO102">
-        <v>1.36</v>
-      </c>
-      <c r="AP102">
-        <v>1.73</v>
-      </c>
-      <c r="AQ102">
-        <v>1.17</v>
-      </c>
-      <c r="AR102">
-        <v>0.83</v>
-      </c>
-      <c r="AS102">
-        <v>1.31</v>
-      </c>
-      <c r="AT102">
-        <v>0.92</v>
-      </c>
-      <c r="AU102">
-        <v>1.13</v>
-      </c>
-      <c r="AV102">
-        <v>1.28</v>
-      </c>
-      <c r="AW102">
-        <v>2.41</v>
-      </c>
-      <c r="AX102">
-        <v>1.67</v>
-      </c>
-      <c r="AY102">
-        <v>7.1</v>
-      </c>
-      <c r="AZ102">
-        <v>2.78</v>
-      </c>
-      <c r="BA102">
-        <v>1.47</v>
-      </c>
-      <c r="BB102">
-        <v>1.8</v>
-      </c>
-      <c r="BC102">
-        <v>2.25</v>
-      </c>
-      <c r="BD102">
-        <v>3.25</v>
-      </c>
-      <c r="BE102">
-        <v>4.7</v>
-      </c>
-      <c r="BF102">
-        <v>2</v>
       </c>
       <c r="BG102">
         <v>4</v>
@@ -20721,13 +20724,13 @@
         <v>2</v>
       </c>
       <c r="BI102">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK102">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:63">
@@ -20735,7 +20738,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2367136</v>
+        <v>2367133</v>
       </c>
       <c r="C103" t="s">
         <v>63</v>
@@ -20750,10 +20753,10 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -20765,145 +20768,145 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="P103" t="s">
         <v>83</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R103">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S103">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T103">
+        <v>2.88</v>
+      </c>
+      <c r="U103">
+        <v>2.1</v>
+      </c>
+      <c r="V103">
         <v>4</v>
       </c>
-      <c r="U103">
-        <v>2.38</v>
-      </c>
-      <c r="V103">
-        <v>2.4</v>
-      </c>
       <c r="W103">
+        <v>1.45</v>
+      </c>
+      <c r="X103">
+        <v>2.55</v>
+      </c>
+      <c r="Y103">
+        <v>3.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.32</v>
+      </c>
+      <c r="AA103">
+        <v>7.6</v>
+      </c>
+      <c r="AB103">
+        <v>1.05</v>
+      </c>
+      <c r="AC103">
+        <v>2.05</v>
+      </c>
+      <c r="AD103">
+        <v>3.1</v>
+      </c>
+      <c r="AE103">
+        <v>3.3</v>
+      </c>
+      <c r="AF103">
+        <v>1.07</v>
+      </c>
+      <c r="AG103">
+        <v>7.5</v>
+      </c>
+      <c r="AH103">
+        <v>1.38</v>
+      </c>
+      <c r="AI103">
+        <v>2.8</v>
+      </c>
+      <c r="AJ103">
+        <v>2.08</v>
+      </c>
+      <c r="AK103">
+        <v>1.73</v>
+      </c>
+      <c r="AL103">
+        <v>1.83</v>
+      </c>
+      <c r="AM103">
+        <v>1.83</v>
+      </c>
+      <c r="AN103">
+        <v>1.28</v>
+      </c>
+      <c r="AO103">
         <v>1.36</v>
       </c>
-      <c r="X103">
-        <v>2.95</v>
-      </c>
-      <c r="Y103">
-        <v>2.7</v>
-      </c>
-      <c r="Z103">
-        <v>1.41</v>
-      </c>
-      <c r="AA103">
-        <v>7.5</v>
-      </c>
-      <c r="AB103">
-        <v>1.09</v>
-      </c>
-      <c r="AC103">
-        <v>3.4</v>
-      </c>
-      <c r="AD103">
-        <v>3.75</v>
-      </c>
-      <c r="AE103">
+      <c r="AP103">
+        <v>1.73</v>
+      </c>
+      <c r="AQ103">
+        <v>1.17</v>
+      </c>
+      <c r="AR103">
+        <v>0.83</v>
+      </c>
+      <c r="AS103">
+        <v>1.31</v>
+      </c>
+      <c r="AT103">
+        <v>0.92</v>
+      </c>
+      <c r="AU103">
+        <v>1.13</v>
+      </c>
+      <c r="AV103">
+        <v>1.28</v>
+      </c>
+      <c r="AW103">
+        <v>2.41</v>
+      </c>
+      <c r="AX103">
+        <v>1.67</v>
+      </c>
+      <c r="AY103">
+        <v>7.1</v>
+      </c>
+      <c r="AZ103">
+        <v>2.78</v>
+      </c>
+      <c r="BA103">
+        <v>1.47</v>
+      </c>
+      <c r="BB103">
         <v>1.8</v>
       </c>
-      <c r="AF103">
-        <v>1.03</v>
-      </c>
-      <c r="AG103">
-        <v>13</v>
-      </c>
-      <c r="AH103">
-        <v>1.25</v>
-      </c>
-      <c r="AI103">
-        <v>3.75</v>
-      </c>
-      <c r="AJ103">
-        <v>1.67</v>
-      </c>
-      <c r="AK103">
-        <v>2.15</v>
-      </c>
-      <c r="AL103">
-        <v>1.62</v>
-      </c>
-      <c r="AM103">
-        <v>2.2</v>
-      </c>
-      <c r="AN103">
-        <v>1.74</v>
-      </c>
-      <c r="AO103">
-        <v>1.3</v>
-      </c>
-      <c r="AP103">
-        <v>1.32</v>
-      </c>
-      <c r="AQ103">
-        <v>0.83</v>
-      </c>
-      <c r="AR103">
-        <v>1</v>
-      </c>
-      <c r="AS103">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AT103">
-        <v>1.23</v>
-      </c>
-      <c r="AU103">
-        <v>1.14</v>
-      </c>
-      <c r="AV103">
-        <v>1.54</v>
-      </c>
-      <c r="AW103">
-        <v>2.68</v>
-      </c>
-      <c r="AX103">
-        <v>2.73</v>
-      </c>
-      <c r="AY103">
-        <v>6.9</v>
-      </c>
-      <c r="AZ103">
-        <v>1.7</v>
-      </c>
-      <c r="BA103">
-        <v>1.41</v>
-      </c>
-      <c r="BB103">
-        <v>1.76</v>
-      </c>
       <c r="BC103">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="BD103">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BE103">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BF103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG103">
         <v>4</v>
@@ -20912,13 +20915,13 @@
         <v>2</v>
       </c>
       <c r="BI103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK103">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:63">
@@ -21440,7 +21443,7 @@
         <v>1.69</v>
       </c>
       <c r="AT106">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU106">
         <v>2.01</v>
@@ -21819,7 +21822,7 @@
         <v>0.75</v>
       </c>
       <c r="AS108">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT108">
         <v>1.31</v>
@@ -23923,7 +23926,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT119">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU119">
         <v>1.09</v>
@@ -24302,7 +24305,7 @@
         <v>0.78</v>
       </c>
       <c r="AS121">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT121">
         <v>0.62</v>
@@ -26597,7 +26600,7 @@
         <v>2.46</v>
       </c>
       <c r="AT133">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU133">
         <v>2.24</v>
@@ -27549,7 +27552,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT138">
         <v>1.54</v>
@@ -29462,7 +29465,7 @@
         <v>1</v>
       </c>
       <c r="AT148">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU148">
         <v>1.22</v>
@@ -30605,7 +30608,7 @@
         <v>1.2</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT154">
         <v>1.23</v>
@@ -31754,7 +31757,7 @@
         <v>1.54</v>
       </c>
       <c r="AT160">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AU160">
         <v>1.69</v>
@@ -32324,7 +32327,7 @@
         <v>0.91</v>
       </c>
       <c r="AS163">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
         <v>1.23</v>
@@ -36008,6 +36011,197 @@
       </c>
       <c r="BK182">
         <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2367216</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44998.64583333334</v>
+      </c>
+      <c r="F183">
+        <v>26</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>72</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>83</v>
+      </c>
+      <c r="P183" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q183">
+        <v>1</v>
+      </c>
+      <c r="R183">
+        <v>8</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>6.5</v>
+      </c>
+      <c r="U183">
+        <v>2.5</v>
+      </c>
+      <c r="V183">
+        <v>1.91</v>
+      </c>
+      <c r="W183">
+        <v>1.31</v>
+      </c>
+      <c r="X183">
+        <v>3.26</v>
+      </c>
+      <c r="Y183">
+        <v>2.45</v>
+      </c>
+      <c r="Z183">
+        <v>1.51</v>
+      </c>
+      <c r="AA183">
+        <v>5.75</v>
+      </c>
+      <c r="AB183">
+        <v>1.12</v>
+      </c>
+      <c r="AC183">
+        <v>6.5</v>
+      </c>
+      <c r="AD183">
+        <v>4.33</v>
+      </c>
+      <c r="AE183">
+        <v>1.36</v>
+      </c>
+      <c r="AF183">
+        <v>1.03</v>
+      </c>
+      <c r="AG183">
+        <v>15.25</v>
+      </c>
+      <c r="AH183">
+        <v>1.22</v>
+      </c>
+      <c r="AI183">
+        <v>3.83</v>
+      </c>
+      <c r="AJ183">
+        <v>1.71</v>
+      </c>
+      <c r="AK183">
+        <v>2.07</v>
+      </c>
+      <c r="AL183">
+        <v>1.83</v>
+      </c>
+      <c r="AM183">
+        <v>1.83</v>
+      </c>
+      <c r="AN183">
+        <v>2.91</v>
+      </c>
+      <c r="AO183">
+        <v>1.16</v>
+      </c>
+      <c r="AP183">
+        <v>1.06</v>
+      </c>
+      <c r="AQ183">
+        <v>1.17</v>
+      </c>
+      <c r="AR183">
+        <v>1.83</v>
+      </c>
+      <c r="AS183">
+        <v>1.08</v>
+      </c>
+      <c r="AT183">
+        <v>1.92</v>
+      </c>
+      <c r="AU183">
+        <v>1.44</v>
+      </c>
+      <c r="AV183">
+        <v>1.97</v>
+      </c>
+      <c r="AW183">
+        <v>3.41</v>
+      </c>
+      <c r="AX183">
+        <v>4.56</v>
+      </c>
+      <c r="AY183">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ183">
+        <v>1.32</v>
+      </c>
+      <c r="BA183">
+        <v>1.29</v>
+      </c>
+      <c r="BB183">
+        <v>1.54</v>
+      </c>
+      <c r="BC183">
+        <v>2.38</v>
+      </c>
+      <c r="BD183">
+        <v>2.37</v>
+      </c>
+      <c r="BE183">
+        <v>3.1</v>
+      </c>
+      <c r="BF183">
+        <v>2</v>
+      </c>
+      <c r="BG183">
+        <v>4</v>
+      </c>
+      <c r="BH183">
+        <v>1</v>
+      </c>
+      <c r="BI183">
+        <v>10</v>
+      </c>
+      <c r="BJ183">
+        <v>3</v>
+      </c>
+      <c r="BK183">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.31</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>0.92</v>
@@ -1918,7 +1918,7 @@
         <v>0.62</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.54</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT12" t="n">
         <v>2.54</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT13" t="n">
         <v>1.54</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.92</v>
@@ -3948,7 +3948,7 @@
         <v>1.08</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU17" t="n">
         <v>0.96</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.92</v>
@@ -4963,7 +4963,7 @@
         <v>1.69</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU22" t="n">
         <v>3.46</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU23" t="n">
         <v>2.03</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU25" t="n">
         <v>1.43</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU29" t="n">
         <v>0.58</v>
@@ -6587,7 +6587,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU30" t="n">
         <v>1.06</v>
@@ -6790,7 +6790,7 @@
         <v>0.92</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -6993,7 +6993,7 @@
         <v>1.31</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.08</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT34" t="n">
         <v>0.92</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.31</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT40" t="n">
         <v>1.54</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>1.08</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU42" t="n">
         <v>1.18</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT43" t="n">
         <v>0.92</v>
@@ -9429,7 +9429,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU44" t="n">
         <v>1.11</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT46" t="n">
         <v>1.08</v>
@@ -10241,7 +10241,7 @@
         <v>0.62</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU48" t="n">
         <v>1.36</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU50" t="n">
         <v>2.33</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT53" t="n">
         <v>0.92</v>
@@ -11662,7 +11662,7 @@
         <v>1.69</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU55" t="n">
         <v>2.25</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU56" t="n">
         <v>1.85</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT57" t="n">
         <v>1.23</v>
@@ -12474,7 +12474,7 @@
         <v>1.31</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU59" t="n">
         <v>0.9399999999999999</v>
@@ -13283,10 +13283,10 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU63" t="n">
         <v>1.22</v>
@@ -13486,10 +13486,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU64" t="n">
         <v>2.33</v>
@@ -13689,10 +13689,10 @@
         <v>1.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU65" t="n">
         <v>2.31</v>
@@ -14098,7 +14098,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14501,7 +14501,7 @@
         <v>0.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>1.54</v>
@@ -15110,10 +15110,10 @@
         <v>0.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU72" t="n">
         <v>2.16</v>
@@ -15313,10 +15313,10 @@
         <v>0.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU73" t="n">
         <v>1.27</v>
@@ -15519,7 +15519,7 @@
         <v>1.31</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -15925,7 +15925,7 @@
         <v>1.54</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU76" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT78" t="n">
         <v>1.92</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU79" t="n">
         <v>1.49</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
         <v>1.23</v>
@@ -17955,7 +17955,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18155,10 +18155,10 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU87" t="n">
         <v>1.24</v>
@@ -18358,7 +18358,7 @@
         <v>0.83</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>0.92</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.25</v>
@@ -18967,10 +18967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU91" t="n">
         <v>2.12</v>
@@ -19170,7 +19170,7 @@
         <v>1.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT92" t="n">
         <v>1.31</v>
@@ -19373,10 +19373,10 @@
         <v>2.29</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU93" t="n">
         <v>1.22</v>
@@ -19779,10 +19779,10 @@
         <v>0.86</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU95" t="n">
         <v>1.76</v>
@@ -20188,7 +20188,7 @@
         <v>0.62</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU97" t="n">
         <v>1.48</v>
@@ -20591,7 +20591,7 @@
         <v>1.43</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT99" t="n">
         <v>1.31</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT100" t="n">
         <v>1.23</v>
@@ -21203,7 +21203,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU102" t="n">
         <v>1.14</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT104" t="n">
         <v>1.08</v>
@@ -21812,7 +21812,7 @@
         <v>1</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22215,10 +22215,10 @@
         <v>0.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22421,7 +22421,7 @@
         <v>1.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.54</v>
@@ -22827,7 +22827,7 @@
         <v>1.54</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23230,7 +23230,7 @@
         <v>0.86</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT112" t="n">
         <v>0.92</v>
@@ -23433,7 +23433,7 @@
         <v>3</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT113" t="n">
         <v>2.54</v>
@@ -23839,10 +23839,10 @@
         <v>0.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU115" t="n">
         <v>2.31</v>
@@ -24854,10 +24854,10 @@
         <v>0.63</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU120" t="n">
         <v>1.83</v>
@@ -25060,7 +25060,7 @@
         <v>1.08</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25869,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU125" t="n">
         <v>2.09</v>
@@ -26072,7 +26072,7 @@
         <v>1.75</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT126" t="n">
         <v>1.54</v>
@@ -26278,7 +26278,7 @@
         <v>1.08</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU127" t="n">
         <v>1.3</v>
@@ -26681,10 +26681,10 @@
         <v>0.75</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU129" t="n">
         <v>1.2</v>
@@ -27290,10 +27290,10 @@
         <v>0.78</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27493,7 +27493,7 @@
         <v>2.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT133" t="n">
         <v>1.92</v>
@@ -27696,7 +27696,7 @@
         <v>0.78</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT134" t="n">
         <v>0.92</v>
@@ -28105,7 +28105,7 @@
         <v>1.69</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU136" t="n">
         <v>1.86</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT137" t="n">
         <v>1.23</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU140" t="n">
         <v>1.55</v>
@@ -29320,7 +29320,7 @@
         <v>1.2</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT142" t="n">
         <v>1.31</v>
@@ -29526,7 +29526,7 @@
         <v>1.31</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU143" t="n">
         <v>1.16</v>
@@ -29729,7 +29729,7 @@
         <v>1.08</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU144" t="n">
         <v>1.31</v>
@@ -30135,7 +30135,7 @@
         <v>0.92</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU146" t="n">
         <v>1.17</v>
@@ -30538,7 +30538,7 @@
         <v>2.1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT148" t="n">
         <v>1.92</v>
@@ -30741,10 +30741,10 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -30944,10 +30944,10 @@
         <v>1.64</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU150" t="n">
         <v>1.81</v>
@@ -31553,7 +31553,7 @@
         <v>0.9</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT153" t="n">
         <v>0.92</v>
@@ -32165,7 +32165,7 @@
         <v>0.62</v>
       </c>
       <c r="AT156" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU156" t="n">
         <v>1.57</v>
@@ -32368,7 +32368,7 @@
         <v>0.92</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU157" t="n">
         <v>1.14</v>
@@ -32568,7 +32568,7 @@
         <v>1.18</v>
       </c>
       <c r="AS158" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT158" t="n">
         <v>1.31</v>
@@ -32774,7 +32774,7 @@
         <v>1.08</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU159" t="n">
         <v>1.25</v>
@@ -33380,7 +33380,7 @@
         <v>2.73</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT162" t="n">
         <v>2.54</v>
@@ -33586,7 +33586,7 @@
         <v>1.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU163" t="n">
         <v>1.43</v>
@@ -34395,7 +34395,7 @@
         <v>1.27</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT167" t="n">
         <v>1.08</v>
@@ -34801,7 +34801,7 @@
         <v>0.82</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT169" t="n">
         <v>0.92</v>
@@ -35007,7 +35007,7 @@
         <v>0.62</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU170" t="n">
         <v>1.58</v>
@@ -35207,7 +35207,7 @@
         <v>2.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT171" t="n">
         <v>2.54</v>
@@ -35616,7 +35616,7 @@
         <v>0.92</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AU173" t="n">
         <v>1.15</v>
@@ -35816,10 +35816,10 @@
         <v>1.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AU174" t="n">
         <v>2.29</v>
@@ -36019,10 +36019,10 @@
         <v>0.83</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU175" t="n">
         <v>1.68</v>
@@ -36222,7 +36222,7 @@
         <v>1.08</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT176" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.69</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU180" t="n">
         <v>1.96</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT182" t="n">
         <v>0.92</v>
@@ -37698,6 +37698,1021 @@
       </c>
       <c r="BK183" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5618113</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Hapoel Katamon</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2</v>
+      </c>
+      <c r="R184" t="n">
+        <v>6</v>
+      </c>
+      <c r="S184" t="n">
+        <v>8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5618114</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45003.52083333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['31', '38']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>9</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>9</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V185" t="n">
+        <v>8</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5622039</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45003.5625</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Sektzia Nes Tziona</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['49', '68']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>7</v>
+      </c>
+      <c r="R186" t="n">
+        <v>2</v>
+      </c>
+      <c r="S186" t="n">
+        <v>9</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5622038</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.60416666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['62', '83']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2</v>
+      </c>
+      <c r="S187" t="n">
+        <v>5</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5618112</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>3</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['24', '32']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>4</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>9</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V188" t="n">
+        <v>8</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT7" t="n">
         <v>1.57</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.93</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
         <v>1.14</v>
@@ -4151,7 +4151,7 @@
         <v>1.29</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU18" t="n">
         <v>0.97</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU20" t="n">
         <v>1.67</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU23" t="n">
         <v>2.03</v>
@@ -5369,7 +5369,7 @@
         <v>0.93</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU25" t="n">
         <v>1.43</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU26" t="n">
         <v>2.68</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT27" t="n">
         <v>0.93</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU28" t="n">
         <v>0.9</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT29" t="n">
         <v>1.57</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -6993,7 +6993,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU35" t="n">
         <v>1.49</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>1.92</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU37" t="n">
         <v>1.35</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU38" t="n">
         <v>1.8</v>
@@ -8414,7 +8414,7 @@
         <v>1.69</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU40" t="n">
         <v>2.22</v>
@@ -8820,7 +8820,7 @@
         <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT42" t="n">
         <v>1.57</v>
@@ -9223,7 +9223,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT43" t="n">
         <v>0.93</v>
@@ -9429,7 +9429,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU44" t="n">
         <v>1.11</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.34</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT47" t="n">
         <v>1.92</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT48" t="n">
         <v>1.14</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49" t="n">
         <v>1.66</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT51" t="n">
         <v>0.93</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU52" t="n">
         <v>1.44</v>
@@ -11253,7 +11253,7 @@
         <v>1.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT53" t="n">
         <v>0.93</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU54" t="n">
         <v>1.55</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU56" t="n">
         <v>1.85</v>
@@ -12065,10 +12065,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU57" t="n">
         <v>2.04</v>
@@ -12268,10 +12268,10 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU58" t="n">
         <v>1.31</v>
@@ -12474,7 +12474,7 @@
         <v>1.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU59" t="n">
         <v>0.9399999999999999</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>1.08</v>
@@ -12877,7 +12877,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT61" t="n">
         <v>1.92</v>
@@ -13080,10 +13080,10 @@
         <v>2.25</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU62" t="n">
         <v>1.28</v>
@@ -13489,7 +13489,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU64" t="n">
         <v>2.33</v>
@@ -13689,7 +13689,7 @@
         <v>1.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT65" t="n">
         <v>1.14</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU66" t="n">
         <v>1.55</v>
@@ -14501,10 +14501,10 @@
         <v>0.8</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU69" t="n">
         <v>1.48</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT70" t="n">
         <v>0.93</v>
@@ -14910,7 +14910,7 @@
         <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -15113,7 +15113,7 @@
         <v>2.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU72" t="n">
         <v>2.16</v>
@@ -15316,7 +15316,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU73" t="n">
         <v>1.27</v>
@@ -15719,10 +15719,10 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU75" t="n">
         <v>1.33</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT76" t="n">
         <v>0.93</v>
@@ -16125,10 +16125,10 @@
         <v>3</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU77" t="n">
         <v>1.35</v>
@@ -16328,7 +16328,7 @@
         <v>1.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT78" t="n">
         <v>1.92</v>
@@ -16937,10 +16937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU81" t="n">
         <v>1.34</v>
@@ -17346,7 +17346,7 @@
         <v>2</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU83" t="n">
         <v>1.83</v>
@@ -17546,7 +17546,7 @@
         <v>1.2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT84" t="n">
         <v>1.08</v>
@@ -17952,10 +17952,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18158,7 +18158,7 @@
         <v>0.93</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU87" t="n">
         <v>1.24</v>
@@ -18361,7 +18361,7 @@
         <v>2.5</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU88" t="n">
         <v>2.28</v>
@@ -18561,7 +18561,7 @@
         <v>2.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT89" t="n">
         <v>1.57</v>
@@ -18764,10 +18764,10 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU90" t="n">
         <v>1.48</v>
@@ -18967,7 +18967,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT91" t="n">
         <v>0.93</v>
@@ -19170,10 +19170,10 @@
         <v>1.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.58</v>
@@ -19576,10 +19576,10 @@
         <v>0.71</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU94" t="n">
         <v>1.46</v>
@@ -19779,10 +19779,10 @@
         <v>0.86</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU95" t="n">
         <v>1.76</v>
@@ -19982,10 +19982,10 @@
         <v>3</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.61</v>
@@ -20185,10 +20185,10 @@
         <v>0.86</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU97" t="n">
         <v>1.48</v>
@@ -20388,10 +20388,10 @@
         <v>1.67</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU98" t="n">
         <v>1.25</v>
@@ -20591,10 +20591,10 @@
         <v>1.43</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU99" t="n">
         <v>2.09</v>
@@ -20797,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU100" t="n">
         <v>2.34</v>
@@ -20997,7 +20997,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>0.93</v>
@@ -22215,10 +22215,10 @@
         <v>0.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22418,10 +22418,10 @@
         <v>0.75</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU108" t="n">
         <v>1.54</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU109" t="n">
         <v>1.44</v>
@@ -22824,7 +22824,7 @@
         <v>2.13</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT110" t="n">
         <v>1.57</v>
@@ -23027,10 +23027,10 @@
         <v>1.86</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU111" t="n">
         <v>1.52</v>
@@ -23433,10 +23433,10 @@
         <v>3</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU113" t="n">
         <v>2.14</v>
@@ -23639,7 +23639,7 @@
         <v>1.69</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU114" t="n">
         <v>1.88</v>
@@ -24045,7 +24045,7 @@
         <v>1.29</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU116" t="n">
         <v>1.06</v>
@@ -24245,7 +24245,7 @@
         <v>0.86</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT117" t="n">
         <v>1.08</v>
@@ -24448,7 +24448,7 @@
         <v>0.71</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT118" t="n">
         <v>0.93</v>
@@ -25057,10 +25057,10 @@
         <v>0.78</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25260,10 +25260,10 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU122" t="n">
         <v>1.49</v>
@@ -25463,7 +25463,7 @@
         <v>0.88</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT123" t="n">
         <v>0.93</v>
@@ -25669,7 +25669,7 @@
         <v>1.69</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU124" t="n">
         <v>1.88</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT125" t="n">
         <v>1.57</v>
@@ -26072,10 +26072,10 @@
         <v>1.75</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU126" t="n">
         <v>1.82</v>
@@ -26275,7 +26275,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
         <v>0.93</v>
@@ -26887,7 +26887,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU130" t="n">
         <v>1.07</v>
@@ -27087,7 +27087,7 @@
         <v>0.88</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT131" t="n">
         <v>1.08</v>
@@ -27293,7 +27293,7 @@
         <v>2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27696,7 +27696,7 @@
         <v>0.78</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT134" t="n">
         <v>0.93</v>
@@ -27899,7 +27899,7 @@
         <v>0.89</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT135" t="n">
         <v>0.93</v>
@@ -28105,7 +28105,7 @@
         <v>1.69</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU136" t="n">
         <v>1.86</v>
@@ -28305,10 +28305,10 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU137" t="n">
         <v>1.77</v>
@@ -28508,10 +28508,10 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU138" t="n">
         <v>1.49</v>
@@ -28714,7 +28714,7 @@
         <v>1.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU139" t="n">
         <v>1.17</v>
@@ -29120,7 +29120,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU141" t="n">
         <v>1.1</v>
@@ -29323,7 +29323,7 @@
         <v>2.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU142" t="n">
         <v>2.23</v>
@@ -29726,10 +29726,10 @@
         <v>0.8</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU144" t="n">
         <v>1.31</v>
@@ -29929,7 +29929,7 @@
         <v>1.11</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT145" t="n">
         <v>1.08</v>
@@ -30132,7 +30132,7 @@
         <v>0.6</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT146" t="n">
         <v>0.93</v>
@@ -30338,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU147" t="n">
         <v>1.59</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT149" t="n">
         <v>1.14</v>
@@ -31150,7 +31150,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU151" t="n">
         <v>1.03</v>
@@ -31553,7 +31553,7 @@
         <v>0.9</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT153" t="n">
         <v>0.93</v>
@@ -31756,10 +31756,10 @@
         <v>1.2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -31962,7 +31962,7 @@
         <v>1.69</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU155" t="n">
         <v>1.95</v>
@@ -32162,7 +32162,7 @@
         <v>0.64</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT156" t="n">
         <v>0.93</v>
@@ -32365,10 +32365,10 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU157" t="n">
         <v>1.14</v>
@@ -32571,7 +32571,7 @@
         <v>0.93</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU158" t="n">
         <v>1.21</v>
@@ -32771,10 +32771,10 @@
         <v>0.73</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU159" t="n">
         <v>1.25</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT160" t="n">
         <v>1.92</v>
@@ -33383,7 +33383,7 @@
         <v>2.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU162" t="n">
         <v>2.35</v>
@@ -33583,7 +33583,7 @@
         <v>0.91</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT163" t="n">
         <v>1.14</v>
@@ -33789,7 +33789,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU164" t="n">
         <v>1.03</v>
@@ -34195,7 +34195,7 @@
         <v>1.69</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU166" t="n">
         <v>1.89</v>
@@ -34395,7 +34395,7 @@
         <v>1.27</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT167" t="n">
         <v>1.08</v>
@@ -34598,10 +34598,10 @@
         <v>1.09</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU168" t="n">
         <v>1.36</v>
@@ -35004,10 +35004,10 @@
         <v>1.17</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU170" t="n">
         <v>1.58</v>
@@ -35210,7 +35210,7 @@
         <v>0.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU171" t="n">
         <v>1.21</v>
@@ -35410,10 +35410,10 @@
         <v>1.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU172" t="n">
         <v>1.66</v>
@@ -35613,10 +35613,10 @@
         <v>0.67</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU173" t="n">
         <v>1.15</v>
@@ -36019,7 +36019,7 @@
         <v>0.83</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AT175" t="n">
         <v>0.93</v>
@@ -36222,10 +36222,10 @@
         <v>1.08</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT176" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU176" t="n">
         <v>2.13</v>
@@ -36428,7 +36428,7 @@
         <v>1.29</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU177" t="n">
         <v>1.22</v>
@@ -36628,7 +36628,7 @@
         <v>0.75</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT178" t="n">
         <v>0.93</v>
@@ -36834,7 +36834,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU179" t="n">
         <v>1</v>
@@ -37643,7 +37643,7 @@
         <v>1.83</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT183" t="n">
         <v>1.92</v>
@@ -37846,10 +37846,10 @@
         <v>1.38</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU184" t="n">
         <v>1.81</v>
@@ -38049,10 +38049,10 @@
         <v>1.5</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AU185" t="n">
         <v>2.34</v>
@@ -38255,7 +38255,7 @@
         <v>1.07</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AU186" t="n">
         <v>1.23</v>
@@ -38455,10 +38455,10 @@
         <v>1.04</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AT187" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AU187" t="n">
         <v>1.69</v>
@@ -38658,10 +38658,10 @@
         <v>1.38</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="AU188" t="n">
         <v>2.1</v>
@@ -38861,7 +38861,7 @@
         <v>0.92</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT189" t="n">
         <v>0.93</v>
@@ -39064,10 +39064,10 @@
         <v>0.77</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU190" t="n">
         <v>1.23</v>
@@ -39119,6 +39119,1427 @@
       </c>
       <c r="BK190" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5622040</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Sektzia Nes Tziona</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['60', '87']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>5</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>8</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V191" t="n">
+        <v>5</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5618116</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45017.52083333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Hapoel Katamon</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['1', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>2</v>
+      </c>
+      <c r="R192" t="n">
+        <v>6</v>
+      </c>
+      <c r="S192" t="n">
+        <v>8</v>
+      </c>
+      <c r="T192" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V192" t="n">
+        <v>2</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5618117</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45017.58333333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>5</v>
+      </c>
+      <c r="R193" t="n">
+        <v>11</v>
+      </c>
+      <c r="S193" t="n">
+        <v>16</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V193" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5618115</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45017.58333333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['2', '4', '73']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['37', '89']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>4</v>
+      </c>
+      <c r="R194" t="n">
+        <v>6</v>
+      </c>
+      <c r="S194" t="n">
+        <v>10</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5622042</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45018.60416666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Ironi Kiryat Shmona</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Bnei Sakhnin</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['51', '81']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['24', '77']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R195" t="n">
+        <v>4</v>
+      </c>
+      <c r="S195" t="n">
+        <v>10</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V195" t="n">
+        <v>4</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5622041</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45018.60416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>5</v>
+      </c>
+      <c r="S196" t="n">
+        <v>10</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5622043</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45019.59375</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['45+1', '90']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>5</v>
+      </c>
+      <c r="S197" t="n">
+        <v>10</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT4" t="n">
         <v>1.08</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT5" t="n">
         <v>0.93</v>
@@ -1918,7 +1918,7 @@
         <v>0.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT16" t="n">
         <v>0.93</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU17" t="n">
         <v>0.96</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU19" t="n">
         <v>2.11</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT22" t="n">
         <v>0.93</v>
@@ -6384,7 +6384,7 @@
         <v>1.53</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>0.58</v>
@@ -6790,7 +6790,7 @@
         <v>0.93</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT33" t="n">
         <v>1.08</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT35" t="n">
         <v>1.29</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU36" t="n">
         <v>1.33</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
         <v>2.36</v>
@@ -9023,7 +9023,7 @@
         <v>1.21</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.18</v>
@@ -10038,7 +10038,7 @@
         <v>0.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU47" t="n">
         <v>1.36</v>
@@ -10241,7 +10241,7 @@
         <v>0.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU48" t="n">
         <v>1.36</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT49" t="n">
         <v>0.93</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT50" t="n">
         <v>0.93</v>
@@ -11659,10 +11659,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU55" t="n">
         <v>2.25</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT56" t="n">
         <v>0.73</v>
@@ -12880,7 +12880,7 @@
         <v>0.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT64" t="n">
         <v>1.13</v>
@@ -13692,7 +13692,7 @@
         <v>2.87</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU65" t="n">
         <v>2.31</v>
@@ -14098,7 +14098,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT68" t="n">
         <v>0.93</v>
@@ -14907,7 +14907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT71" t="n">
         <v>1.64</v>
@@ -15110,7 +15110,7 @@
         <v>0.8</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT72" t="n">
         <v>0.73</v>
@@ -15519,7 +15519,7 @@
         <v>1.29</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -16331,7 +16331,7 @@
         <v>1.53</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU78" t="n">
         <v>1.51</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU79" t="n">
         <v>1.49</v>
@@ -16734,7 +16734,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT80" t="n">
         <v>0.93</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT83" t="n">
         <v>1.21</v>
@@ -17752,7 +17752,7 @@
         <v>1.29</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU85" t="n">
         <v>1.08</v>
@@ -18358,7 +18358,7 @@
         <v>0.83</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT88" t="n">
         <v>0.93</v>
@@ -18564,7 +18564,7 @@
         <v>0.93</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU89" t="n">
         <v>1.25</v>
@@ -19376,7 +19376,7 @@
         <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.22</v>
@@ -20794,7 +20794,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT100" t="n">
         <v>1.21</v>
@@ -21203,7 +21203,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU102" t="n">
         <v>1.14</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT104" t="n">
         <v>1.08</v>
@@ -22012,10 +22012,10 @@
         <v>2.14</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU106" t="n">
         <v>2.01</v>
@@ -22827,7 +22827,7 @@
         <v>1.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23636,7 +23636,7 @@
         <v>1.25</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT114" t="n">
         <v>1.29</v>
@@ -23839,10 +23839,10 @@
         <v>0.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU115" t="n">
         <v>2.31</v>
@@ -24654,7 +24654,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU119" t="n">
         <v>1.09</v>
@@ -24854,7 +24854,7 @@
         <v>0.63</v>
       </c>
       <c r="AS120" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT120" t="n">
         <v>0.93</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT124" t="n">
         <v>0.93</v>
@@ -25872,7 +25872,7 @@
         <v>2.87</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU125" t="n">
         <v>2.09</v>
@@ -26684,7 +26684,7 @@
         <v>0.93</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU129" t="n">
         <v>1.2</v>
@@ -27290,7 +27290,7 @@
         <v>0.78</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT132" t="n">
         <v>1.13</v>
@@ -27493,10 +27493,10 @@
         <v>2.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU133" t="n">
         <v>2.24</v>
@@ -28102,7 +28102,7 @@
         <v>0.8</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT136" t="n">
         <v>0.73</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.55</v>
@@ -29320,7 +29320,7 @@
         <v>1.2</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT142" t="n">
         <v>1.29</v>
@@ -29526,7 +29526,7 @@
         <v>1.29</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU143" t="n">
         <v>1.16</v>
@@ -30541,7 +30541,7 @@
         <v>0.93</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU148" t="n">
         <v>1.22</v>
@@ -30744,7 +30744,7 @@
         <v>1.53</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU149" t="n">
         <v>1.74</v>
@@ -30944,10 +30944,10 @@
         <v>1.64</v>
       </c>
       <c r="AS150" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU150" t="n">
         <v>1.81</v>
@@ -31959,7 +31959,7 @@
         <v>1.6</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT155" t="n">
         <v>1.64</v>
@@ -32977,7 +32977,7 @@
         <v>1.64</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU160" t="n">
         <v>1.69</v>
@@ -33380,7 +33380,7 @@
         <v>2.73</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT162" t="n">
         <v>2.36</v>
@@ -33586,7 +33586,7 @@
         <v>1.21</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU163" t="n">
         <v>1.43</v>
@@ -34192,7 +34192,7 @@
         <v>1.18</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT166" t="n">
         <v>1.21</v>
@@ -34801,7 +34801,7 @@
         <v>0.82</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT169" t="n">
         <v>0.93</v>
@@ -35816,10 +35816,10 @@
         <v>1.58</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU174" t="n">
         <v>2.29</v>
@@ -37034,10 +37034,10 @@
         <v>1.08</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU180" t="n">
         <v>1.96</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT182" t="n">
         <v>0.93</v>
@@ -37646,7 +37646,7 @@
         <v>1.21</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AU183" t="n">
         <v>1.44</v>
@@ -37846,10 +37846,10 @@
         <v>1.38</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AU184" t="n">
         <v>1.81</v>
@@ -38049,10 +38049,10 @@
         <v>1.5</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AU185" t="n">
         <v>2.34</v>
@@ -38658,10 +38658,10 @@
         <v>1.38</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AU188" t="n">
         <v>2.1</v>
@@ -39470,10 +39470,10 @@
         <v>2.04</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="AU192" t="n">
         <v>1.43</v>
@@ -39673,10 +39673,10 @@
         <v>2.26</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="AU193" t="n">
         <v>2.04</v>
@@ -39876,10 +39876,10 @@
         <v>1.44</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AU194" t="n">
         <v>1.66</v>
@@ -40540,6 +40540,615 @@
       </c>
       <c r="BK197" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5618120</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45020.57291666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Hapoel Katamon</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['73', '86']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>6</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5618118</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45020.58333333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>4</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['44', '61', '90+7']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>8</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V199" t="n">
+        <v>6</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5618119</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45020.60416666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>6</v>
+      </c>
+      <c r="R200" t="n">
+        <v>7</v>
+      </c>
+      <c r="S200" t="n">
+        <v>13</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>0.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT10" t="n">
         <v>0.73</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT23" t="n">
         <v>0.73</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU25" t="n">
         <v>1.43</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT26" t="n">
         <v>1.64</v>
@@ -6384,7 +6384,7 @@
         <v>1.53</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU29" t="n">
         <v>0.58</v>
@@ -6993,7 +6993,7 @@
         <v>1.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU32" t="n">
         <v>0.9</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT38" t="n">
         <v>1.21</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT40" t="n">
         <v>1.64</v>
@@ -9023,7 +9023,7 @@
         <v>1.21</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.18</v>
@@ -9429,7 +9429,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU44" t="n">
         <v>1.11</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT52" t="n">
         <v>0.93</v>
@@ -11662,7 +11662,7 @@
         <v>1.57</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU55" t="n">
         <v>2.25</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT57" t="n">
         <v>1.21</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT60" t="n">
         <v>1.08</v>
@@ -13489,7 +13489,7 @@
         <v>2.4</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU64" t="n">
         <v>2.33</v>
@@ -13689,7 +13689,7 @@
         <v>1.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT65" t="n">
         <v>1.07</v>
@@ -14098,7 +14098,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -15316,7 +15316,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU73" t="n">
         <v>1.27</v>
@@ -15519,7 +15519,7 @@
         <v>1.29</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU74" t="n">
         <v>1.12</v>
@@ -15922,7 +15922,7 @@
         <v>0.8</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT76" t="n">
         <v>0.93</v>
@@ -17952,10 +17952,10 @@
         <v>0.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU86" t="n">
         <v>1.53</v>
@@ -18564,7 +18564,7 @@
         <v>0.93</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU89" t="n">
         <v>1.25</v>
@@ -18967,7 +18967,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT91" t="n">
         <v>0.93</v>
@@ -19376,7 +19376,7 @@
         <v>0.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU93" t="n">
         <v>1.22</v>
@@ -19782,7 +19782,7 @@
         <v>1.53</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU95" t="n">
         <v>1.76</v>
@@ -19982,7 +19982,7 @@
         <v>3</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT96" t="n">
         <v>2.36</v>
@@ -20591,7 +20591,7 @@
         <v>1.43</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT99" t="n">
         <v>1.29</v>
@@ -22421,7 +22421,7 @@
         <v>1.21</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU108" t="n">
         <v>1.54</v>
@@ -22824,10 +22824,10 @@
         <v>2.13</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU110" t="n">
         <v>1.58</v>
@@ -23433,7 +23433,7 @@
         <v>3</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT113" t="n">
         <v>2.36</v>
@@ -25463,7 +25463,7 @@
         <v>0.88</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT123" t="n">
         <v>0.93</v>
@@ -25869,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU125" t="n">
         <v>2.09</v>
@@ -27293,7 +27293,7 @@
         <v>2.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU132" t="n">
         <v>1.8</v>
@@ -27696,7 +27696,7 @@
         <v>0.78</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT134" t="n">
         <v>0.93</v>
@@ -27899,7 +27899,7 @@
         <v>0.89</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT135" t="n">
         <v>0.93</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU140" t="n">
         <v>1.55</v>
@@ -29729,7 +29729,7 @@
         <v>1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU144" t="n">
         <v>1.31</v>
@@ -30947,7 +30947,7 @@
         <v>2.07</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU150" t="n">
         <v>1.81</v>
@@ -31553,7 +31553,7 @@
         <v>0.9</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT153" t="n">
         <v>0.93</v>
@@ -32368,7 +32368,7 @@
         <v>0.93</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU157" t="n">
         <v>1.14</v>
@@ -32974,7 +32974,7 @@
         <v>2</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT160" t="n">
         <v>1.86</v>
@@ -34395,7 +34395,7 @@
         <v>1.27</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT167" t="n">
         <v>1.08</v>
@@ -35007,7 +35007,7 @@
         <v>0.64</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU170" t="n">
         <v>1.58</v>
@@ -35410,7 +35410,7 @@
         <v>1.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT172" t="n">
         <v>1.29</v>
@@ -35819,7 +35819,7 @@
         <v>2.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU174" t="n">
         <v>2.29</v>
@@ -36222,7 +36222,7 @@
         <v>1.08</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AT176" t="n">
         <v>0.93</v>
@@ -37849,7 +37849,7 @@
         <v>2.21</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AU184" t="n">
         <v>1.81</v>
@@ -38052,7 +38052,7 @@
         <v>2.03</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AU185" t="n">
         <v>2.34</v>
@@ -38658,10 +38658,10 @@
         <v>1.38</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AU188" t="n">
         <v>2.1</v>
@@ -39470,7 +39470,7 @@
         <v>2.04</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT192" t="n">
         <v>2.03</v>
@@ -39673,7 +39673,7 @@
         <v>2.26</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AT193" t="n">
         <v>2.21</v>
@@ -39876,10 +39876,10 @@
         <v>1.44</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AU194" t="n">
         <v>1.66</v>
@@ -40688,10 +40688,10 @@
         <v>1.29</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AU198" t="n">
         <v>1.91</v>
@@ -40894,7 +40894,7 @@
         <v>2.21</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AU199" t="n">
         <v>1.81</v>
@@ -41097,7 +41097,7 @@
         <v>2.03</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AU200" t="n">
         <v>2.36</v>
@@ -41149,6 +41149,412 @@
       </c>
       <c r="BK200" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5618121</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45024.47916666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Ashdod</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Hapoel Katamon</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>5</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2</v>
+      </c>
+      <c r="S201" t="n">
+        <v>7</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5618122</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45024.58333333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Maccabi Netanya</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>4</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>5</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['56', '58', '85', '90+5']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>3</v>
+      </c>
+      <c r="R202" t="n">
+        <v>5</v>
+      </c>
+      <c r="S202" t="n">
+        <v>8</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Israel Israeli Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>0.93</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT15" t="n">
         <v>1.07</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT19" t="n">
         <v>1.86</v>
@@ -5775,7 +5775,7 @@
         <v>1.53</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU26" t="n">
         <v>2.68</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT35" t="n">
         <v>1.29</v>
@@ -8617,7 +8617,7 @@
         <v>2.88</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU40" t="n">
         <v>2.22</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT49" t="n">
         <v>0.93</v>
@@ -11459,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU54" t="n">
         <v>1.55</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT56" t="n">
         <v>0.73</v>
@@ -14907,10 +14907,10 @@
         <v>1.75</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU71" t="n">
         <v>1.89</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU81" t="n">
         <v>1.34</v>
@@ -17343,7 +17343,7 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT83" t="n">
         <v>1.21</v>
@@ -20391,7 +20391,7 @@
         <v>0.93</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU98" t="n">
         <v>1.25</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT104" t="n">
         <v>1.08</v>
@@ -23030,7 +23030,7 @@
         <v>0.64</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU111" t="n">
         <v>1.52</v>
@@ -24854,7 +24854,7 @@
         <v>0.63</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT120" t="n">
         <v>0.93</v>
@@ -26075,7 +26075,7 @@
         <v>1.53</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU126" t="n">
         <v>1.82</v>
@@ -27290,7 +27290,7 @@
         <v>0.78</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT132" t="n">
         <v>1.06</v>
@@ -28511,7 +28511,7 @@
         <v>1.21</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU138" t="n">
         <v>1.49</v>
@@ -30944,7 +30944,7 @@
         <v>1.64</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT150" t="n">
         <v>1.75</v>
@@ -31962,7 +31962,7 @@
         <v>1.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU155" t="n">
         <v>1.95</v>
@@ -33789,7 +33789,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU164" t="n">
         <v>1.03</v>
@@ -34801,7 +34801,7 @@
         <v>0.82</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT169" t="n">
         <v>0.93</v>
@@ -36428,7 +36428,7 @@
         <v>1.29</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU177" t="n">
         <v>1.22</v>
@@ -37440,7 +37440,7 @@
         <v>1</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AT182" t="n">
         <v>0.93</v>
@@ -37846,7 +37846,7 @@
         <v>1.38</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT184" t="n">
         <v>1.4</v>
@@ -38049,7 +38049,7 @@
         <v>1.5</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AT185" t="n">
         <v>1.3</v>
@@ -39473,7 +39473,7 @@
         <v>1.4</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AU192" t="n">
         <v>1.43</v>
@@ -39676,7 +39676,7 @@
         <v>2.4</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AU193" t="n">
         <v>2.04</v>
@@ -40891,7 +40891,7 @@
         <v>1.39</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AT199" t="n">
         <v>1.3</v>
@@ -41094,7 +41094,7 @@
         <v>2.43</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AT200" t="n">
         <v>2.4</v>
@@ -41555,6 +41555,209 @@
       </c>
       <c r="BK202" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5618123</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Israel Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45026.60416666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>4</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Hapoel Be'er Sheva</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['20', '90+12']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>11</v>
+      </c>
+      <c r="S203" t="n">
+        <v>16</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
